--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57D933AC-CB3D-4160-9101-8E8B5939E453}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F31082-2F2C-4794-8B54-3B4CDAE027C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7200" yWindow="1440" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="6555" windowWidth="21600" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,289 @@
   </si>
   <si>
     <t>数量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Destroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拆除</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hut</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MudRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>土路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mud Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farmland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>农田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Farmland</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LivestockFarm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Livestock Farm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Factory</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工厂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoggingCamps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Logging Camps</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Housing</t>
+  </si>
+  <si>
+    <t>住房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Agriculture</t>
+  </si>
+  <si>
+    <t>农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forestry</t>
+  </si>
+  <si>
+    <t>林业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Manufacturing</t>
+  </si>
+  <si>
+    <t>制造业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Utilitiy</t>
+  </si>
+  <si>
+    <t>公共服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Gold</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>花费</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是简介</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This is introduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TempIntroduction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Wheat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小麦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Rice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稻米</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Log</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Timber</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RawMeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Raw Meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Flour</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面粉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LaborForce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Labor Force</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProcessedMeat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加工肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Processed Meat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>库存</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BidPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bid Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出价格</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OfferPrice</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Offer Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Consumption</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗量</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -127,8 +410,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -409,17 +695,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.375" customWidth="1"/>
+    <col min="1" max="1" width="15.625" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="13.375" customWidth="1"/>
+    <col min="3" max="3" width="16.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -497,6 +783,347 @@
       </c>
       <c r="C7" t="s">
         <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B14" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>40</v>
+      </c>
+      <c r="C18" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B19" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>43</v>
+      </c>
+      <c r="B20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" t="s">
+        <v>46</v>
+      </c>
+      <c r="C21" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>47</v>
+      </c>
+      <c r="B22" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>49</v>
+      </c>
+      <c r="B23" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
+        <v>54</v>
+      </c>
+      <c r="C25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>57</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>58</v>
+      </c>
+      <c r="B27" t="s">
+        <v>59</v>
+      </c>
+      <c r="C27" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>60</v>
+      </c>
+      <c r="B28" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>64</v>
+      </c>
+      <c r="B30" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B31" t="s">
+        <v>68</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" t="s">
+        <v>70</v>
+      </c>
+      <c r="C32" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B33" t="s">
+        <v>73</v>
+      </c>
+      <c r="C33" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B34" t="s">
+        <v>75</v>
+      </c>
+      <c r="C34" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>79</v>
+      </c>
+      <c r="B36" t="s">
+        <v>80</v>
+      </c>
+      <c r="C36" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>83</v>
+      </c>
+      <c r="B37" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>85</v>
+      </c>
+      <c r="B38" t="s">
+        <v>86</v>
+      </c>
+      <c r="C38" t="s">
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23530"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6F31082-2F2C-4794-8B54-3B4CDAE027C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8874E062-2DE6-4B90-B29A-BE23486DDEDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="6555" windowWidth="21600" windowHeight="8490" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -367,6 +367,13 @@
   </si>
   <si>
     <t>消耗量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HumanResource</t>
+  </si>
+  <si>
+    <t>人力</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -695,10 +702,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C38"/>
+  <dimension ref="A1:C39"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1126,6 +1133,17 @@
         <v>85</v>
       </c>
     </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>87</v>
+      </c>
+      <c r="B39" t="s">
+        <v>88</v>
+      </c>
+      <c r="C39" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8874E062-2DE6-4B90-B29A-BE23486DDEDF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4FDF78-8EE3-4EF0-9832-D17FDCC8AC74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -39,14 +39,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Wood</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>木头</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Stone</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -373,7 +365,35 @@
     <t>HumanResource</t>
   </si>
   <si>
-    <t>人力</t>
+    <t>Food</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>食物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Year</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Month</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Week</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>月</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,10 +722,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C39"/>
+  <dimension ref="A1:C43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A36" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,420 +748,464 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>61</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B9" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C9" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C11" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C12" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
         <v>25</v>
-      </c>
-      <c r="B13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" t="s">
-        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" t="s">
         <v>28</v>
-      </c>
-      <c r="B14" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
         <v>31</v>
-      </c>
-      <c r="B15" t="s">
-        <v>32</v>
-      </c>
-      <c r="C15" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" t="s">
         <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B18" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B22" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B23" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C23" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B25" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B29" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>64</v>
+      </c>
+      <c r="B31" t="s">
         <v>66</v>
       </c>
-      <c r="B31" t="s">
-        <v>68</v>
-      </c>
       <c r="C31" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C32" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B33" t="s">
         <v>71</v>
       </c>
-      <c r="B33" t="s">
-        <v>73</v>
-      </c>
       <c r="C33" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" t="s">
+        <v>73</v>
+      </c>
+      <c r="C34" t="s">
         <v>74</v>
-      </c>
-      <c r="B34" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" t="s">
-        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>77</v>
+      </c>
+      <c r="B36" t="s">
+        <v>78</v>
+      </c>
+      <c r="C36" t="s">
         <v>79</v>
-      </c>
-      <c r="B36" t="s">
-        <v>80</v>
-      </c>
-      <c r="C36" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C37" t="s">
         <v>82</v>
-      </c>
-      <c r="C37" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B38" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
+        <v>85</v>
+      </c>
+      <c r="B39" t="s">
+        <v>71</v>
+      </c>
+      <c r="C39" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>86</v>
+      </c>
+      <c r="B40" t="s">
         <v>87</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C40" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
         <v>88</v>
       </c>
-      <c r="C39" t="s">
-        <v>87</v>
+      <c r="B41" t="s">
+        <v>89</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>90</v>
+      </c>
+      <c r="B42" t="s">
+        <v>92</v>
+      </c>
+      <c r="C42" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>91</v>
+      </c>
+      <c r="B43" t="s">
+        <v>93</v>
+      </c>
+      <c r="C43" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4FDF78-8EE3-4EF0-9832-D17FDCC8AC74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE5F0F7-A6F0-4618-8C19-753A57A3B846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -394,6 +394,14 @@
   </si>
   <si>
     <t>周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -722,10 +730,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C43"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1208,6 +1216,17 @@
         <v>91</v>
       </c>
     </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>94</v>
+      </c>
+      <c r="B44" t="s">
+        <v>95</v>
+      </c>
+      <c r="C44" t="s">
+        <v>94</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE5F0F7-A6F0-4618-8C19-753A57A3B846}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3103132C-F42A-4234-A41A-C9ED7E198FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -402,6 +402,30 @@
   </si>
   <si>
     <t>日</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Resident</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>居民</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人口</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -730,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C44"/>
+  <dimension ref="A1:C47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1227,6 +1251,39 @@
         <v>94</v>
       </c>
     </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>96</v>
+      </c>
+      <c r="B45" t="s">
+        <v>97</v>
+      </c>
+      <c r="C45" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>98</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>100</v>
+      </c>
+      <c r="B47" t="s">
+        <v>101</v>
+      </c>
+      <c r="C47" t="s">
+        <v>100</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3103132C-F42A-4234-A41A-C9ED7E198FB1}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A69A88E-12FB-4956-9360-450E6C2FD69A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -338,10 +338,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bid Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>卖出价格</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -350,10 +346,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Offer Price</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Consumption</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -426,6 +418,45 @@
   </si>
   <si>
     <t>人口</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradeOption</t>
+  </si>
+  <si>
+    <t>贸易目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trade Option</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExpectedProfit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>预期利润</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Expected Profit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell Price</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sausage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>香肠</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,10 +785,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C47"/>
+  <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1160,128 +1191,161 @@
         <v>78</v>
       </c>
       <c r="C36" t="s">
-        <v>79</v>
+        <v>106</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B37" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C37" t="s">
-        <v>82</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B39" t="s">
         <v>71</v>
       </c>
       <c r="C39" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C40" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C41" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>88</v>
+      </c>
+      <c r="B42" t="s">
         <v>90</v>
       </c>
-      <c r="B42" t="s">
-        <v>92</v>
-      </c>
       <c r="C42" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
         <v>91</v>
       </c>
-      <c r="B43" t="s">
-        <v>93</v>
-      </c>
       <c r="C43" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B44" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C44" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B45" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C45" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B46" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C46" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>98</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
         <v>100</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B48" t="s">
         <v>101</v>
       </c>
-      <c r="C47" t="s">
-        <v>100</v>
+      <c r="C48" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>103</v>
+      </c>
+      <c r="B49" t="s">
+        <v>104</v>
+      </c>
+      <c r="C49" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>108</v>
+      </c>
+      <c r="B50" t="s">
+        <v>109</v>
+      </c>
+      <c r="C50" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -5,16 +5,19 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A69A88E-12FB-4956-9360-450E6C2FD69A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71936EDC-DCAF-48FD-BEE0-7605486E8519}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$50</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -787,8 +790,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C45" sqref="C45"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1349,6 +1352,7 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71936EDC-DCAF-48FD-BEE0-7605486E8519}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E810352-56DC-4BAC-84EB-F8D2920B37A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7500" yWindow="3255" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -114,26 +114,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Hut</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土房</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MudRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>土路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Mud Road</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Farmland</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -460,6 +440,97 @@
   </si>
   <si>
     <t>香肠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cottage</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间小屋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Large residential</t>
+  </si>
+  <si>
+    <t>Large residential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇公寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乡间小道</t>
+  </si>
+  <si>
+    <t>Country road</t>
+  </si>
+  <si>
+    <t>水泥路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cement road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Apartment</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asphalt road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Asphalt road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>柏油路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bazaar</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集市</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Shopping Mall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Integrated mill</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合工厂</t>
+  </si>
+  <si>
+    <t>工坊</t>
+  </si>
+  <si>
+    <t>Workshop</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -467,7 +538,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -477,6 +548,20 @@
     </font>
     <font>
       <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF2E3033"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
@@ -503,10 +588,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -788,10 +878,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -814,13 +904,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -924,431 +1014,530 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
       <c r="B12" t="s">
-        <v>22</v>
+        <v>106</v>
       </c>
       <c r="C12" t="s">
-        <v>21</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C13" t="s">
-        <v>25</v>
+      <c r="A13" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B16" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C17" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="B19" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C20" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B21" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B22" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C23" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B26" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C26" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C27" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C28" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C29" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C30" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C31" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B32" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C32" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="B33" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C33" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B34" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C34" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B35" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C35" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="B37" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="C37" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B38" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C38" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B39" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B40" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C40" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B42" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C42" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B43" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="C43" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B44" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B45" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B46" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="C46" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B47" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C47" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="B48" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
       <c r="C48" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B49" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>103</v>
+      </c>
+      <c r="B50" t="s">
+        <v>104</v>
+      </c>
+      <c r="C50" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B51" t="s">
+        <v>107</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="C50" t="s">
-        <v>108</v>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" t="s">
+        <v>115</v>
+      </c>
+      <c r="B52" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B53" t="s">
+        <v>113</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B54" t="s">
+        <v>118</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="B55" t="s">
+        <v>120</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" t="s">
+        <v>122</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" t="s">
+        <v>124</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B58" t="s">
+        <v>127</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" t="s">
+        <v>125</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="C59" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\毕业设计\BiShe\Assets\Resources\Data\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E810352-56DC-4BAC-84EB-F8D2920B37A7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60984A1-D805-4DFB-BE49-5DE4A6048AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7500" yWindow="3255" windowWidth="28800" windowHeight="15885" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="130">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,35 +172,16 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Forestry</t>
-  </si>
-  <si>
-    <t>林业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Manufacturing</t>
   </si>
   <si>
-    <t>制造业</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Utilitiy</t>
   </si>
   <si>
-    <t>公共服务</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Road</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>路</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Gold</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,6 +512,30 @@
   </si>
   <si>
     <t>Workshop</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CountryRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Produce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>服务</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -880,8 +885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -904,13 +909,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1014,24 +1019,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>112</v>
+        <v>124</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>112</v>
+        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1102,442 +1107,442 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>126</v>
       </c>
       <c r="C20" t="s">
-        <v>36</v>
+        <v>125</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>39</v>
+        <v>127</v>
       </c>
       <c r="C21" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>128</v>
       </c>
       <c r="C22" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>129</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C24" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="B25" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="B26" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C26" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B27" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C27" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="B28" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C28" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B29" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C29" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="B30" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C30" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B31" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C31" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C32" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B33" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C33" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="B34" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C34" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="B35" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C35" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="B36" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C36" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="B37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C37" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="B38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C39" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="B40" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C40" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C41" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B42" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="C42" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="B43" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C44" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="C45" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B47" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C47" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="B48" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C48" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="B49" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="C49" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="B50" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B51" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="B52" t="s">
+        <v>105</v>
+      </c>
+      <c r="C52" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="C52" s="2" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="B53" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="B54" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="B58" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="C59" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C60984A1-D805-4DFB-BE49-5DE4A6048AF5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD313D-8921-43C3-9B00-DE784EC58F62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -536,6 +536,14 @@
   </si>
   <si>
     <t>道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Government</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -883,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C59"/>
+  <dimension ref="A1:C60"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1545,6 +1553,17 @@
         <v>120</v>
       </c>
     </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B60" t="s">
+        <v>131</v>
+      </c>
+      <c r="C60" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27DD313D-8921-43C3-9B00-DE784EC58F62}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D9B89-32D2-452D-AF8A-D37B611C381E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -891,10 +891,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C60"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A51" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C58" sqref="C58"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1564,6 +1564,9 @@
         <v>130</v>
       </c>
     </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="2"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3D9B89-32D2-452D-AF8A-D37B611C381E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83EEFAC-1947-4D53-94FB-C0D5E3CCFB36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="132">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="145">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -544,6 +544,57 @@
   </si>
   <si>
     <t>政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Van</t>
+  </si>
+  <si>
+    <t>Van</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>面包车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MiniTruck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型货车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MediumTruck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型货车</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>货物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goods</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Request</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请求</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>运输</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transport</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -891,10 +942,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C61"/>
+  <dimension ref="A1:C66"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1565,7 +1616,70 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="2"/>
+      <c r="A61" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B61" t="s">
+        <v>134</v>
+      </c>
+      <c r="C61" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B62" t="s">
+        <v>136</v>
+      </c>
+      <c r="C62" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B63" t="s">
+        <v>138</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B64" t="s">
+        <v>139</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="B65" t="s">
+        <v>142</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B66" t="s">
+        <v>143</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>144</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A83EEFAC-1947-4D53-94FB-C0D5E3CCFB36}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3A31CF-3892-453D-9A23-7AE0EF6B0644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9540" yWindow="3705" windowWidth="26595" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="167">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,9 +437,6 @@
   </si>
   <si>
     <t>Large residential</t>
-  </si>
-  <si>
-    <t>Large residential</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -595,6 +592,98 @@
   </si>
   <si>
     <t>Transport</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlainResidentialLv1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlainResidentialLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GovernmentLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GovernmentLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachResidential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachResidentialLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CoachResidentialLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiResidential</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiResidentialLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HuiResidentialLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mine</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MineLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>市政中心</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸公寓</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徽式民宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型矿井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型矿井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型矿井</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徽式民宅Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>徽式民宅Lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸公寓Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸公寓Lv2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -652,7 +741,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -661,6 +750,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -942,15 +1034,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C66"/>
+  <dimension ref="A1:C78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.625" customWidth="1"/>
+    <col min="1" max="1" width="18.5" customWidth="1"/>
     <col min="2" max="2" width="12.125" customWidth="1"/>
     <col min="3" max="3" width="16.625" customWidth="1"/>
   </cols>
@@ -1078,7 +1170,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -1089,13 +1181,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>106</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1166,13 +1258,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>124</v>
+      </c>
+      <c r="B20" t="s">
         <v>125</v>
       </c>
-      <c r="B20" t="s">
-        <v>126</v>
-      </c>
       <c r="C20" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1180,7 +1272,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1191,7 +1283,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1202,7 +1294,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1506,179 +1598,311 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="2" t="s">
-        <v>103</v>
+      <c r="A51" t="s">
+        <v>145</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B52" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
+        <v>107</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>108</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B54" t="s">
+        <v>112</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>111</v>
-      </c>
-      <c r="B54" t="s">
-        <v>113</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="B55" t="s">
         <v>114</v>
       </c>
-      <c r="B55" t="s">
-        <v>115</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B56" t="s">
         <v>116</v>
       </c>
-      <c r="B56" t="s">
-        <v>117</v>
-      </c>
       <c r="C56" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B57" t="s">
         <v>118</v>
       </c>
-      <c r="B57" t="s">
-        <v>119</v>
-      </c>
       <c r="C57" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>122</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>119</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>120</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>121</v>
-      </c>
       <c r="C59" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B60" t="s">
         <v>130</v>
       </c>
-      <c r="B60" t="s">
-        <v>131</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B61" t="s">
         <v>133</v>
       </c>
-      <c r="B61" t="s">
-        <v>134</v>
-      </c>
       <c r="C61" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B62" t="s">
         <v>135</v>
       </c>
-      <c r="B62" t="s">
-        <v>136</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B63" t="s">
         <v>137</v>
       </c>
-      <c r="B63" t="s">
-        <v>138</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B64" t="s">
+        <v>138</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B65" t="s">
         <v>141</v>
       </c>
-      <c r="B65" t="s">
-        <v>142</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B66" t="s">
+        <v>142</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C66" s="2" t="s">
-        <v>144</v>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B67" t="s">
+        <v>157</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B68" t="s">
+        <v>157</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B69" t="s">
+        <v>157</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>151</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>164</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>163</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>156</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3A31CF-3892-453D-9A23-7AE0EF6B0644}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C21618F-66A0-4680-8DAD-DB815FD39C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9540" yWindow="3705" windowWidth="26595" windowHeight="11910" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="171">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -684,6 +684,22 @@
   </si>
   <si>
     <t>海岸公寓Lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Input</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Output</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1034,10 +1050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C78"/>
+  <dimension ref="A1:C80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G37" sqref="G37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1905,6 +1921,28 @@
         <v>156</v>
       </c>
     </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
+        <v>167</v>
+      </c>
+      <c r="B79" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>168</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C21618F-66A0-4680-8DAD-DB815FD39C74}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA955D2-F5F8-43E6-B80B-16C4DD2C1DED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="182">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -486,18 +486,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>综合市场</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Shopping Mall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>大型商城</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Integrated mill</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -700,6 +692,58 @@
   </si>
   <si>
     <t>生产</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Open</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>打开</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商城</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技面板</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechCanvas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fish</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EveryWeek</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每周</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Maintain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维持</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1050,10 +1094,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C80"/>
+  <dimension ref="A1:C86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="E85" sqref="E85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1186,7 +1230,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B12" t="s">
         <v>101</v>
@@ -1197,7 +1241,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>105</v>
@@ -1274,13 +1318,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C20" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1288,7 +1332,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1299,7 +1343,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1310,7 +1354,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1615,7 +1659,7 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
         <v>102</v>
@@ -1673,7 +1717,7 @@
         <v>115</v>
       </c>
       <c r="B56" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>115</v>
@@ -1681,266 +1725,332 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>118</v>
+        <v>171</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C59" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B60" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B61" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C61" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B62" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B63" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B64" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B65" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B66" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B67" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B68" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B69" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>169</v>
-      </c>
       <c r="C79" s="5" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="B80" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="B80" s="5" t="s">
+      <c r="C80" s="5" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>168</v>
+      <c r="C81" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B82" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="B84" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="B85" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="B86" s="5" t="s">
+        <v>181</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>180</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AA955D2-F5F8-43E6-B80B-16C4DD2C1DED}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC1E7E94-6972-4DCF-B653-48268A772161}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1170" yWindow="1170" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14910" yWindow="2835" windowWidth="16425" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="202">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -234,10 +234,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Timber</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>木料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -744,6 +740,89 @@
   </si>
   <si>
     <t>维持</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furniture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Iron</t>
+  </si>
+  <si>
+    <t>生铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Fur</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>毛皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegitable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蔬菜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>StoneMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石材</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MeatTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>肉罐头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FishTin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>鱼罐头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Clothes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>衣服</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mantou</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>馒头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SteamedBread</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IronMaterial</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>铁块</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1094,10 +1173,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C86"/>
+  <dimension ref="A1:C95"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="E85" sqref="E85"/>
+    <sheetView tabSelected="1" topLeftCell="A71" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1230,24 +1309,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>105</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1318,13 +1397,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
+        <v>121</v>
+      </c>
+      <c r="B20" t="s">
         <v>122</v>
       </c>
-      <c r="B20" t="s">
-        <v>123</v>
-      </c>
       <c r="C20" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -1332,7 +1411,7 @@
         <v>36</v>
       </c>
       <c r="B21" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C21" t="s">
         <v>36</v>
@@ -1343,7 +1422,7 @@
         <v>37</v>
       </c>
       <c r="B22" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C22" t="s">
         <v>37</v>
@@ -1354,7 +1433,7 @@
         <v>38</v>
       </c>
       <c r="B23" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C23" t="s">
         <v>38</v>
@@ -1428,629 +1507,728 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
+        <v>181</v>
+      </c>
+      <c r="B30" t="s">
         <v>52</v>
       </c>
-      <c r="B30" t="s">
-        <v>53</v>
-      </c>
       <c r="C30" t="s">
-        <v>52</v>
+        <v>181</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>53</v>
+      </c>
+      <c r="B31" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31" t="s">
         <v>54</v>
-      </c>
-      <c r="B31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>56</v>
+      </c>
+      <c r="B32" t="s">
         <v>57</v>
       </c>
-      <c r="B32" t="s">
-        <v>58</v>
-      </c>
       <c r="C32" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" t="s">
         <v>59</v>
-      </c>
-      <c r="B33" t="s">
-        <v>61</v>
-      </c>
-      <c r="C33" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>61</v>
+      </c>
+      <c r="B34" t="s">
         <v>62</v>
       </c>
-      <c r="B34" t="s">
+      <c r="C34" t="s">
         <v>63</v>
-      </c>
-      <c r="C34" t="s">
-        <v>64</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
+        <v>64</v>
+      </c>
+      <c r="B35" t="s">
         <v>65</v>
       </c>
-      <c r="B35" t="s">
-        <v>66</v>
-      </c>
       <c r="C35" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
+        <v>66</v>
+      </c>
+      <c r="B36" t="s">
         <v>67</v>
       </c>
-      <c r="B36" t="s">
-        <v>68</v>
-      </c>
       <c r="C36" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B37" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C37" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
+        <v>70</v>
+      </c>
+      <c r="B38" t="s">
         <v>71</v>
       </c>
-      <c r="B38" t="s">
-        <v>72</v>
-      </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C39" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>73</v>
+      </c>
+      <c r="B40" t="s">
         <v>74</v>
       </c>
-      <c r="B40" t="s">
-        <v>75</v>
-      </c>
       <c r="C40" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>75</v>
+      </c>
+      <c r="B41" t="s">
         <v>76</v>
       </c>
-      <c r="B41" t="s">
-        <v>77</v>
-      </c>
       <c r="C41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B42" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C42" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B43" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
+        <v>81</v>
+      </c>
+      <c r="B44" t="s">
         <v>82</v>
       </c>
-      <c r="B44" t="s">
-        <v>83</v>
-      </c>
       <c r="C44" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
+        <v>83</v>
+      </c>
+      <c r="B45" t="s">
         <v>84</v>
       </c>
-      <c r="B45" t="s">
-        <v>85</v>
-      </c>
       <c r="C45" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
+        <v>85</v>
+      </c>
+      <c r="B46" t="s">
         <v>86</v>
       </c>
-      <c r="B46" t="s">
-        <v>87</v>
-      </c>
       <c r="C46" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>87</v>
+      </c>
+      <c r="B47" t="s">
         <v>88</v>
       </c>
-      <c r="B47" t="s">
-        <v>89</v>
-      </c>
       <c r="C47" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>89</v>
+      </c>
+      <c r="B48" t="s">
         <v>90</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>91</v>
-      </c>
-      <c r="C48" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>92</v>
+      </c>
+      <c r="B49" t="s">
         <v>93</v>
       </c>
-      <c r="B49" t="s">
+      <c r="C49" t="s">
         <v>94</v>
-      </c>
-      <c r="C49" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>97</v>
+      </c>
+      <c r="B50" t="s">
         <v>98</v>
       </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
       <c r="C50" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B51" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51" s="2" t="s">
         <v>102</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B52" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" t="s">
+        <v>106</v>
+      </c>
+      <c r="C53" s="2" t="s">
         <v>107</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B54" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54" s="2" t="s">
         <v>110</v>
-      </c>
-      <c r="B54" t="s">
-        <v>112</v>
-      </c>
-      <c r="C54" s="2" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B55" t="s">
         <v>113</v>
       </c>
-      <c r="B55" t="s">
-        <v>114</v>
-      </c>
       <c r="C55" s="2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
+        <v>118</v>
+      </c>
+      <c r="C58" s="2" t="s">
         <v>119</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
+        <v>116</v>
+      </c>
+      <c r="B59" s="4" t="s">
         <v>117</v>
       </c>
-      <c r="B59" s="4" t="s">
-        <v>118</v>
-      </c>
       <c r="C59" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B60" t="s">
         <v>127</v>
       </c>
-      <c r="B60" t="s">
-        <v>128</v>
-      </c>
       <c r="C60" s="2" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" t="s">
         <v>130</v>
       </c>
-      <c r="B61" t="s">
-        <v>131</v>
-      </c>
       <c r="C61" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B62" t="s">
         <v>132</v>
       </c>
-      <c r="B62" t="s">
-        <v>133</v>
-      </c>
       <c r="C62" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B63" t="s">
         <v>134</v>
       </c>
-      <c r="B63" t="s">
-        <v>135</v>
-      </c>
       <c r="C63" s="2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B64" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="2" t="s">
         <v>136</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" t="s">
         <v>138</v>
       </c>
-      <c r="B65" t="s">
-        <v>139</v>
-      </c>
       <c r="C65" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="B66" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="2" t="s">
         <v>140</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B67" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B68" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B69" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B81" s="5" t="s">
-        <v>170</v>
-      </c>
       <c r="C81" s="5" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B82" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C82" s="5" t="s">
         <v>172</v>
-      </c>
-      <c r="C82" s="5" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="B83" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="B83" s="5" t="s">
-        <v>175</v>
-      </c>
       <c r="C83" s="5" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="B84" s="5" t="s">
-        <v>177</v>
-      </c>
       <c r="C84" s="5" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="B85" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="B85" s="5" t="s">
-        <v>179</v>
-      </c>
       <c r="C85" s="5" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
+        <v>179</v>
+      </c>
+      <c r="B86" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="B86" s="5" t="s">
-        <v>181</v>
-      </c>
       <c r="C86" s="5" t="s">
-        <v>180</v>
+        <v>179</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="B87" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="B88" s="5" t="s">
+        <v>186</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>189</v>
+      </c>
+      <c r="B90" s="5" t="s">
+        <v>190</v>
+      </c>
+      <c r="C90" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" s="5" t="s">
+        <v>192</v>
+      </c>
+      <c r="C91" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>193</v>
+      </c>
+      <c r="B92" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="C92" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>195</v>
+      </c>
+      <c r="B93" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="C93" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>197</v>
+      </c>
+      <c r="B94" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C94" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>200</v>
+      </c>
+      <c r="B95" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C95" t="s">
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6C01902-9755-4E23-9159-E7701844C335}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609089BC-AAA8-4B0E-BCC9-F620F4A5E10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="221">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -831,6 +831,69 @@
   </si>
   <si>
     <t>渔港</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeUpgradeFail</t>
+  </si>
+  <si>
+    <t>升级失败</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Upgrade failed</t>
+  </si>
+  <si>
+    <t>建造失败：资源不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction failed: Lack of resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeBuildFailNoRes</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction failed: Space occupied</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeBuildFailNoPlace</t>
+  </si>
+  <si>
+    <t>建造失败：空间不足</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NoticeBuildFailNoNearRoad</t>
+  </si>
+  <si>
+    <t>NoticeBuildFailNoNearSea</t>
+  </si>
+  <si>
+    <t>建造失败：需要放置在道路旁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造失败：需要放置在海岸线上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction failed: Need to be close to the road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction failed: Need to be close to the coastline</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1181,17 +1244,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C96"/>
+  <dimension ref="A1:C102"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B95" sqref="B95"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C97" sqref="C97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.5" customWidth="1"/>
-    <col min="2" max="2" width="12.125" customWidth="1"/>
-    <col min="3" max="3" width="16.625" customWidth="1"/>
+    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="3" max="3" width="50.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2248,6 +2311,72 @@
       </c>
       <c r="C96" t="s">
         <v>202</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>204</v>
+      </c>
+      <c r="B97" s="5" t="s">
+        <v>205</v>
+      </c>
+      <c r="C97" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>206</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>207</v>
+      </c>
+      <c r="C98" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>211</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>209</v>
+      </c>
+      <c r="C99" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>213</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="C100" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>215</v>
+      </c>
+      <c r="B101" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C101" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>216</v>
+      </c>
+      <c r="B102" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C102" t="s">
+        <v>220</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{609089BC-AAA8-4B0E-BCC9-F620F4A5E10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71638E22-83A9-4455-9EFC-30FD9311AD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6165" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="224">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -894,6 +894,18 @@
   </si>
   <si>
     <t>Construction failed: Need to be close to the coastline</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TechUsing</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在使用的科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy in use</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1244,10 +1256,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C102"/>
+  <dimension ref="A1:C103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C97" sqref="C97"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C96" sqref="C96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2379,6 +2391,17 @@
         <v>220</v>
       </c>
     </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>221</v>
+      </c>
+      <c r="B103" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="C103" t="s">
+        <v>223</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71638E22-83A9-4455-9EFC-30FD9311AD59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B828C5-D780-4532-B9CE-4FCAFAE7F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6165" yWindow="1395" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2850" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="234">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -906,6 +906,46 @@
   </si>
   <si>
     <t>Policy in use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MusicVolumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音乐音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Music Volumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SoundVolumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>音效音量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sound Volumn</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>语言</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Language</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1256,10 +1296,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C96" sqref="C96"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B107" sqref="B107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2402,6 +2442,50 @@
         <v>223</v>
       </c>
     </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>224</v>
+      </c>
+      <c r="B104" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C104" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>227</v>
+      </c>
+      <c r="B105" s="5" t="s">
+        <v>228</v>
+      </c>
+      <c r="C105" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" t="s">
+        <v>231</v>
+      </c>
+      <c r="B106" t="s">
+        <v>230</v>
+      </c>
+      <c r="C106" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" t="s">
+        <v>232</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C107" t="s">
+        <v>232</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58B828C5-D780-4532-B9CE-4FCAFAE7F4C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112711B0-7BE5-4AC3-8910-A904698842DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2850" yWindow="1290" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="321" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="240">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -639,14 +639,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>海岸公寓</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徽式民宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小型矿井</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -659,22 +651,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>徽式民宅Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>徽式民宅Lv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海岸公寓Lv3</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>海岸公寓Lv2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Input</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -946,6 +922,54 @@
   </si>
   <si>
     <t>设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸民居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸民居Lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸民居Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PlainResidentialLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>豪华住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LivestockFarmLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LivestockFarmLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>养殖场三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皖南民居</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皖南民居Lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>皖南民居Lv3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1296,10 +1320,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B107" sqref="B107"/>
+    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1630,13 +1654,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="B30" t="s">
         <v>52</v>
       </c>
       <c r="C30" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -1930,7 +1954,7 @@
         <v>115</v>
       </c>
       <c r="B57" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>115</v>
@@ -2073,7 +2097,7 @@
         <v>145</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>155</v>
+        <v>228</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>145</v>
@@ -2084,7 +2108,7 @@
         <v>146</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>163</v>
+        <v>229</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>146</v>
@@ -2095,7 +2119,7 @@
         <v>147</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>162</v>
+        <v>230</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>147</v>
@@ -2106,7 +2130,7 @@
         <v>148</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>156</v>
+        <v>237</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>148</v>
@@ -2117,7 +2141,7 @@
         <v>149</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>161</v>
+        <v>238</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>149</v>
@@ -2128,7 +2152,7 @@
         <v>150</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>160</v>
+        <v>239</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>150</v>
@@ -2139,7 +2163,7 @@
         <v>151</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>151</v>
@@ -2150,7 +2174,7 @@
         <v>152</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>152</v>
@@ -2161,7 +2185,7 @@
         <v>153</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>153</v>
@@ -2169,321 +2193,354 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C90" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C91" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C92" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="C93" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="C94" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="C95" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>203</v>
+        <v>197</v>
       </c>
       <c r="C96" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>205</v>
+        <v>199</v>
       </c>
       <c r="C97" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>206</v>
+        <v>200</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>207</v>
+        <v>201</v>
       </c>
       <c r="C98" t="s">
-        <v>208</v>
+        <v>202</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="C99" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C100" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="C101" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="C102" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="C103" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="C104" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="C105" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B106" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="C106" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
+        <v>226</v>
+      </c>
+      <c r="B107" s="5" t="s">
+        <v>227</v>
+      </c>
+      <c r="C107" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A108" t="s">
+        <v>231</v>
+      </c>
+      <c r="B108" t="s">
         <v>232</v>
       </c>
-      <c r="B107" s="5" t="s">
+      <c r="C108" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="5" t="s">
         <v>233</v>
       </c>
-      <c r="C107" t="s">
-        <v>232</v>
+      <c r="B109" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="5" t="s">
+        <v>235</v>
+      </c>
+      <c r="B110" s="5" t="s">
+        <v>236</v>
+      </c>
+      <c r="C110" s="5" t="s">
+        <v>235</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{112711B0-7BE5-4AC3-8910-A904698842DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1909A913-A014-480E-B817-D9512BAB01C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="242">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -970,6 +970,14 @@
   </si>
   <si>
     <t>皖南民居Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bridge</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桥梁</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1320,10 +1328,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C110"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A66" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B108" sqref="B108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2543,6 +2551,17 @@
         <v>235</v>
       </c>
     </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" t="s">
+        <v>240</v>
+      </c>
+      <c r="B111" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="C111" t="s">
+        <v>240</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1909A913-A014-480E-B817-D9512BAB01C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8137E3-D3AC-454A-9F36-871A7C2B0446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="246">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -118,10 +118,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>农田</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Farmland</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -274,10 +270,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>加工肉</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Processed Meat</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -424,14 +416,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>乡间小屋</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>大型住宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Large residential</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -742,10 +726,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Vegitable</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>蔬菜</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -941,10 +921,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>豪华住宅</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>LivestockFarmLv2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -978,6 +954,46 @@
   </si>
   <si>
     <t>桥梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FarmlandII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FarmlandIII</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中型农田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大型农田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小型农田</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Vegetable</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>腊肉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>民房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>住宅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>小洋房</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1328,10 +1344,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C111"/>
+  <dimension ref="A1:C113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B108" sqref="B108"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B106" sqref="B106"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1354,13 +1370,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B2" t="s">
         <v>50</v>
       </c>
-      <c r="B2" t="s">
-        <v>51</v>
-      </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
@@ -1464,24 +1480,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="B12" t="s">
-        <v>100</v>
+        <v>243</v>
       </c>
       <c r="C12" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -1489,1077 +1505,1099 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
+        <v>240</v>
+      </c>
+      <c r="C14" t="s">
         <v>22</v>
-      </c>
-      <c r="C14" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" t="s">
         <v>27</v>
       </c>
-      <c r="B16" t="s">
-        <v>28</v>
-      </c>
       <c r="C16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
+        <v>28</v>
+      </c>
+      <c r="B17" t="s">
         <v>29</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
         <v>32</v>
       </c>
-      <c r="B18" t="s">
-        <v>33</v>
-      </c>
       <c r="C18" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" t="s">
         <v>34</v>
       </c>
-      <c r="B19" t="s">
-        <v>35</v>
-      </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B20" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C20" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" t="s">
         <v>39</v>
       </c>
-      <c r="B24" t="s">
-        <v>40</v>
-      </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" t="s">
         <v>41</v>
       </c>
-      <c r="B25" t="s">
-        <v>42</v>
-      </c>
       <c r="C25" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B26" t="s">
+        <v>42</v>
+      </c>
+      <c r="C26" t="s">
         <v>43</v>
-      </c>
-      <c r="C26" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
+        <v>45</v>
+      </c>
+      <c r="B27" t="s">
         <v>46</v>
       </c>
-      <c r="B27" t="s">
-        <v>47</v>
-      </c>
       <c r="C27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s">
         <v>48</v>
       </c>
-      <c r="B28" t="s">
-        <v>49</v>
-      </c>
       <c r="C28" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" t="s">
         <v>50</v>
       </c>
-      <c r="B29" t="s">
-        <v>51</v>
-      </c>
       <c r="C29" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="B30" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
+        <v>52</v>
+      </c>
+      <c r="B31" t="s">
+        <v>54</v>
+      </c>
+      <c r="C31" t="s">
         <v>53</v>
-      </c>
-      <c r="B31" t="s">
-        <v>55</v>
-      </c>
-      <c r="C31" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
+        <v>55</v>
+      </c>
+      <c r="B32" t="s">
         <v>56</v>
       </c>
-      <c r="B32" t="s">
-        <v>57</v>
-      </c>
       <c r="C32" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
+        <v>57</v>
+      </c>
+      <c r="B33" t="s">
+        <v>59</v>
+      </c>
+      <c r="C33" t="s">
         <v>58</v>
-      </c>
-      <c r="B33" t="s">
-        <v>60</v>
-      </c>
-      <c r="C33" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="B34" t="s">
+        <v>242</v>
+      </c>
+      <c r="C34" t="s">
         <v>61</v>
-      </c>
-      <c r="B34" t="s">
-        <v>62</v>
-      </c>
-      <c r="C34" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C35" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B38" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C38" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B39" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B40" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C40" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B41" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C41" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
+        <v>75</v>
+      </c>
+      <c r="B42" t="s">
         <v>77</v>
       </c>
-      <c r="B42" t="s">
-        <v>79</v>
-      </c>
       <c r="C42" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B43" t="s">
         <v>78</v>
       </c>
-      <c r="B43" t="s">
-        <v>80</v>
-      </c>
       <c r="C43" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C44" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C45" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B46" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C46" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B47" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C47" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B48" t="s">
+        <v>88</v>
+      </c>
+      <c r="C48" t="s">
         <v>89</v>
-      </c>
-      <c r="B48" t="s">
-        <v>90</v>
-      </c>
-      <c r="C48" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
+        <v>90</v>
+      </c>
+      <c r="B49" t="s">
+        <v>91</v>
+      </c>
+      <c r="C49" t="s">
         <v>92</v>
-      </c>
-      <c r="B49" t="s">
-        <v>93</v>
-      </c>
-      <c r="C49" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B51" t="s">
-        <v>101</v>
+        <v>244</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B57" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B58" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="C59" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B60" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C61" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B64" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="B65" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="B66" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B67" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="5" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="B68" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="5" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="B69" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="B76" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="B76" s="5" t="s">
-        <v>155</v>
-      </c>
       <c r="C76" s="5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B77" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="B77" s="5" t="s">
-        <v>156</v>
-      </c>
       <c r="C77" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="B78" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="B78" s="5" t="s">
-        <v>157</v>
-      </c>
       <c r="C78" s="5" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="5" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="5" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>181</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="C90" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C91" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="C92" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="C93" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="C94" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="C95" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="C96" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="C97" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="C98" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="C99" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="C100" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="C101" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="C102" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="C103" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="C104" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="C105" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="B106" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="C106" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="B108" t="s">
-        <v>232</v>
+        <v>245</v>
       </c>
       <c r="C108" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="C111" t="s">
-        <v>240</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="B112" t="s">
+        <v>238</v>
+      </c>
+      <c r="C112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B113" t="s">
+        <v>239</v>
+      </c>
+      <c r="C113" t="s">
+        <v>237</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA8137E3-D3AC-454A-9F36-871A7C2B0446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB34F8A-0BA9-4AD4-A448-0C7BB6E31EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="339" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="250">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -994,6 +994,22 @@
   </si>
   <si>
     <t>小洋房</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoggingCampsLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoggingCampsLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伐木场三级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1344,10 +1360,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C113"/>
+  <dimension ref="A1:C115"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B106" sqref="B106"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2600,6 +2616,28 @@
         <v>237</v>
       </c>
     </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A114" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="B114" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B115" s="5" t="s">
+        <v>249</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BB34F8A-0BA9-4AD4-A448-0C7BB6E31EA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31295C5-9202-4086-B777-565172ED7354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="345" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="252">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1010,6 +1010,14 @@
   </si>
   <si>
     <t>伐木场三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1360,9 +1368,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C115"/>
+  <dimension ref="A1:C116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B114" sqref="B114"/>
     </sheetView>
   </sheetViews>
@@ -2638,6 +2646,17 @@
         <v>247</v>
       </c>
     </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" t="s">
+        <v>250</v>
+      </c>
+      <c r="B116" s="5" t="s">
+        <v>251</v>
+      </c>
+      <c r="C116" t="s">
+        <v>250</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F31295C5-9202-4086-B777-565172ED7354}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782ABDB0-5042-4B36-8AB9-BCCE6E8435B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11715" yWindow="3720" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="348" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="345">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1018,6 +1018,394 @@
   </si>
   <si>
     <t>买入</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SelectLevel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选择关卡</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Select Level</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏设置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001Aim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001Aim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金达到20000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总幸福度达到80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇人口达到300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money reach 20,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Averrage happiness reach 80</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population reach 300</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30002Aim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30002Aim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金达到30000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总幸福度达到85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇人口达到400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001Aim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30002Aim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money reach 30,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Averrage happiness reach 85</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population reach 400</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30003Aim1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资金达到40000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总幸福度达到90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城镇人口达到500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Money reach 40,000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Averrage happiness reach 90</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Population reach 500</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30001SpcielIntroduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30003SpcielIntroduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30002SpcielIntroduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原地形，适合发展农业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿产丰富，适合发展工业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>临近海岸，适合发展制造业</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Plain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitable for the development of agriculture</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitable for the development of mining</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>suitable for the development of manufacturing industry</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Mountain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>山川</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Coast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>海岸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LevelAim</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关卡目标</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Feature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Goal</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>特色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>键位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>KeyMapIntroduce</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASD/按住滚轮   移动摄像机
+鼠标左键            交互
+鼠标滚轮            缩放摄像机
+鼠标右键            退出建造状态，退出拆除道路状态
+R                        建造时旋转建筑
+数字键1             一倍速
+数字键2             二倍速
+数字键3             四倍速
+空格                  切换暂停和播放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WASD               Move the camera
+LMB                 Interaction
+RMB                 Exit construction and road demolition
+Mouse wheel     Zoom camera
+R                    Rotating the building while building
+Number key 1   Timescale x1
+Number key 2   Timescale x2
+Number key 3   Timescale x3
+Space              Switch between pause and play</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30003Aim2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>30003Aim3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>平原</t>
+  </si>
+  <si>
+    <t>This is a simulated business game with a rural background. Build farmland, logging yards, quarries and other buildings to produce basic resources, build processing plants to produce more profitable products, sell products in the market for profit, upgrade houses and workplaces for villagers to increase happiness, and unlock policies in the township government Regulate production. The ultimate goal is to build a beautiful new countryside.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一款以农村为背景的模拟经营游戏。建造农田、伐木场、采石场等建筑来生产基础资源，建造加工厂来生产利润更高的产品，在市场售卖产品获得利润，为村民升级房屋和工作场所增加幸福度，在乡政府解锁政策调控生产。最终目标是建立美丽新农村。
+内测玩家交流QQ群号：714451531</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AboutLog</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>About</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saving</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在保存……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Saving…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameSave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>请为新建的存档命名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Please give a name for the save file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NameSave1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>输入存档名称……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Enter file name……</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Overwrite</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>覆盖</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Load</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>读档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>删档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GameSave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏存档</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ExitToMenu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出至菜单</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Exit to menu</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Save game</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1075,7 +1463,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1087,6 +1475,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1368,17 +1762,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C116"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A106" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B114" sqref="B114"/>
+    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.75" customWidth="1"/>
+    <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="50.125" customWidth="1"/>
+    <col min="3" max="3" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2655,6 +3049,391 @@
       </c>
       <c r="C116" t="s">
         <v>250</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" t="s">
+        <v>252</v>
+      </c>
+      <c r="B117" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="C117" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" t="s">
+        <v>255</v>
+      </c>
+      <c r="B118" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C118" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" t="s">
+        <v>257</v>
+      </c>
+      <c r="B119" s="5" t="s">
+        <v>258</v>
+      </c>
+      <c r="C119" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A120" t="s">
+        <v>259</v>
+      </c>
+      <c r="B120" s="5" t="s">
+        <v>260</v>
+      </c>
+      <c r="C120" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" t="s">
+        <v>261</v>
+      </c>
+      <c r="B121" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="C121" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" t="s">
+        <v>263</v>
+      </c>
+      <c r="B122" t="s">
+        <v>265</v>
+      </c>
+      <c r="C122" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" t="s">
+        <v>264</v>
+      </c>
+      <c r="B123" t="s">
+        <v>266</v>
+      </c>
+      <c r="C123" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" t="s">
+        <v>276</v>
+      </c>
+      <c r="B124" t="s">
+        <v>267</v>
+      </c>
+      <c r="C124" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" t="s">
+        <v>271</v>
+      </c>
+      <c r="B125" t="s">
+        <v>273</v>
+      </c>
+      <c r="C125" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A126" t="s">
+        <v>272</v>
+      </c>
+      <c r="B126" t="s">
+        <v>274</v>
+      </c>
+      <c r="C126" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A127" t="s">
+        <v>277</v>
+      </c>
+      <c r="B127" t="s">
+        <v>275</v>
+      </c>
+      <c r="C127" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A128" t="s">
+        <v>281</v>
+      </c>
+      <c r="B128" t="s">
+        <v>282</v>
+      </c>
+      <c r="C128" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A129" t="s">
+        <v>313</v>
+      </c>
+      <c r="B129" t="s">
+        <v>283</v>
+      </c>
+      <c r="C129" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A130" t="s">
+        <v>314</v>
+      </c>
+      <c r="B130" t="s">
+        <v>284</v>
+      </c>
+      <c r="C130" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A131" t="s">
+        <v>288</v>
+      </c>
+      <c r="B131" t="s">
+        <v>291</v>
+      </c>
+      <c r="C131" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A132" t="s">
+        <v>290</v>
+      </c>
+      <c r="B132" t="s">
+        <v>292</v>
+      </c>
+      <c r="C132" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A133" t="s">
+        <v>289</v>
+      </c>
+      <c r="B133" t="s">
+        <v>293</v>
+      </c>
+      <c r="C133" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A134" t="s">
+        <v>315</v>
+      </c>
+      <c r="B134" t="s">
+        <v>298</v>
+      </c>
+      <c r="C134" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>300</v>
+      </c>
+      <c r="B135" t="s">
+        <v>300</v>
+      </c>
+      <c r="C135" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>302</v>
+      </c>
+      <c r="B136" t="s">
+        <v>302</v>
+      </c>
+      <c r="C136" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>303</v>
+      </c>
+      <c r="B137" t="s">
+        <v>304</v>
+      </c>
+      <c r="C137" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>305</v>
+      </c>
+      <c r="B138" t="s">
+        <v>307</v>
+      </c>
+      <c r="C138" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>308</v>
+      </c>
+      <c r="B139" t="s">
+        <v>309</v>
+      </c>
+      <c r="C139" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+      <c r="A140" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B140" s="7" t="s">
+        <v>311</v>
+      </c>
+      <c r="C140" s="7" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>318</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="C141" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>319</v>
+      </c>
+      <c r="B142" t="s">
+        <v>320</v>
+      </c>
+      <c r="C142" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>321</v>
+      </c>
+      <c r="B143" t="s">
+        <v>322</v>
+      </c>
+      <c r="C143" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>323</v>
+      </c>
+      <c r="B144" t="s">
+        <v>324</v>
+      </c>
+      <c r="C144" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>326</v>
+      </c>
+      <c r="B145" t="s">
+        <v>327</v>
+      </c>
+      <c r="C145" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>329</v>
+      </c>
+      <c r="B146" t="s">
+        <v>330</v>
+      </c>
+      <c r="C146" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>332</v>
+      </c>
+      <c r="B147" t="s">
+        <v>333</v>
+      </c>
+      <c r="C147" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>335</v>
+      </c>
+      <c r="B148" t="s">
+        <v>336</v>
+      </c>
+      <c r="C148" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>337</v>
+      </c>
+      <c r="B149" t="s">
+        <v>338</v>
+      </c>
+      <c r="C149" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>339</v>
+      </c>
+      <c r="B150" t="s">
+        <v>340</v>
+      </c>
+      <c r="C150" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>341</v>
+      </c>
+      <c r="B151" t="s">
+        <v>342</v>
+      </c>
+      <c r="C151" t="s">
+        <v>343</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782ABDB0-5042-4B36-8AB9-BCCE6E8435B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09A332D-10B9-4269-9388-647991FEA6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11715" yWindow="3720" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="351">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1406,6 +1406,30 @@
   </si>
   <si>
     <t>Save game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReturnGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>返回游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Return</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>QuitGame</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>退出游戏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Quit game</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1762,10 +1786,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C151"/>
+  <dimension ref="A1:C153"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A152" sqref="A152"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3436,6 +3460,28 @@
         <v>343</v>
       </c>
     </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>345</v>
+      </c>
+      <c r="B152" t="s">
+        <v>346</v>
+      </c>
+      <c r="C152" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>348</v>
+      </c>
+      <c r="B153" t="s">
+        <v>349</v>
+      </c>
+      <c r="C153" t="s">
+        <v>350</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D09A332D-10B9-4269-9388-647991FEA6D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB640CC-F4A3-430D-88B7-59F34135B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11715" yWindow="3720" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="459" uniqueCount="351">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="360">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1430,6 +1430,42 @@
   </si>
   <si>
     <t>Quit game</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarnNoPeople</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告：没有工人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning:No worker</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarnNoMaterials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告：没有原料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning:No raw materials</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarnNoRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告：不能抵达市场</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warning:Unable to reach market</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1786,10 +1822,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C153"/>
+  <dimension ref="A1:C156"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A146" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A152" sqref="A152"/>
+      <selection activeCell="A148" sqref="A148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3482,6 +3518,39 @@
         <v>350</v>
       </c>
     </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>351</v>
+      </c>
+      <c r="B154" t="s">
+        <v>352</v>
+      </c>
+      <c r="C154" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>354</v>
+      </c>
+      <c r="B155" t="s">
+        <v>355</v>
+      </c>
+      <c r="C155" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>357</v>
+      </c>
+      <c r="B156" t="s">
+        <v>358</v>
+      </c>
+      <c r="C156" t="s">
+        <v>359</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABB640CC-F4A3-430D-88B7-59F34135B881}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07304C61-5627-49A3-B796-DECC2F1F4129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11715" yWindow="3720" windowWidth="21735" windowHeight="15435" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="24990" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="468" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="381">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -1466,6 +1466,160 @@
   </si>
   <si>
     <t>Warning:Unable to reach market</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroCameraMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    移动（以下均可）：
+-键盘按键WASD
+-鼠标挪到屏幕边缘
+-按住鼠标滚轮的同时移动鼠标
+    缩放：
+-鼠标滚轮控制缩放
+    旋转：
+-（暂不支持旋转镜头，以后会支持）
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroBuildRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    修路流程：
+-点击建造按钮里的道路页签，点击一种道路进入修路模式
+-点击第一下确定道路的起点
+-移动鼠标（不用按住鼠标左键）
+-点击第二下确定道路的终点
+-终点确定后，会弹出确认弹窗，点勾确认建造，点叉取消建造。
+-资源充足的情况下，将完成建造。
+    提示：
+-道路的起点必须放置在已有的道路上，且终点不能放置在水中，中间不能穿过其它建筑物，可以穿过道路。
+-横穿过水面的道路会自动变成桥梁（并且不额外产生费用）。
+-可以覆盖已有道路来实现升级道路。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    建造提示：
+-点击右下角建造按钮开启建筑物建造菜单。
+-点击页签可以切换建筑类型。
+-点击相应建筑的图标会在鼠标处生成建筑预览。
+-当建筑预览是红色的时候不能建造，绿色的时候才可以建造。
+-建筑必须紧贴放在路的旁边，将绿色箭头一侧贴住道路。不能与其他建筑重合，也不能造在水里。
+-按R可以旋转建筑。
+-鼠标右键可以退出建造状态。
+-可以连续建造
+    特殊说明：
+-渔港有船的一边需要造在水里，箭头的一遍要贴住道路。
+-矿场在灰色地皮上才会有产出。
+-当伐木场周围没有成熟的树木时不会有产出。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroConstruction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroBuildingInfo</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroDestroy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    拆除：
+-建筑：点建筑后弹出生产面板，点击拆除按钮拆除。
+-道路：点击建造栏左侧的拆除道路按钮，点一次拆一次，暂时不支持按住连续拆除。
+-返还：建筑拆除返还75%，道路拆除不返还资源。
+    警告：
+-拆除最后一个市场可能导致游戏崩溃。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroMarket</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Null</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroTech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    生产面板：
+-在非建造状态下点击建筑会打开生产面板。
+-生产面板可以进行切换生产物品，增减工人，升级和拆除的操作。
+-效率与工人数量成正比。政策（科技）可以影响效率。
+-生产周期结束时，产出物品数量=生产率*标准产出量。
+-升级需要花费材料。升级后建筑的标准产出量更高，部分建筑会解锁新配方。
+    没有产出？可能的原因
+-没有工人。有空闲居民时，新造生产建筑会自动填满工人。但是造民房并不会自动给有空位的生产建筑增加工人。
+-没有原料。检查库存（通过仓库），看看原料是否有剩余。特别地，如果伐木场周围没有成年的树木，也不会有产出。
+-没能运去市场。当物品被生产出来时，并不会第一时间就被纳入库存，必须通过车辆运往市场才会被统计为库存。市场有范围限制，离的太远不会运。
+-库存满了。点击一个仓库，查看仓库库存进度条，是否已满。满了的话新运进来的物品会被直接舍弃。
+-Bug。如果以上都没有问题，那极有可能是Bug了，建议立即存档并读档，看是否能解决问题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IntroSave</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    存档
+-存档路径：游戏根目录下BiShe_Data\Resources\Saves
+-复制存档时，请在Saves文件夹里创建同名文件夹，再把存档文件放进去（.save），才能正常读取。
+-由于目前优化不佳，读档耗时很长，粗略估算公式是1000人口对应一分钟加载时间。请读档黑屏时耐心等待，乱点鼠标会导致游戏闪退。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    解锁方式：
+-每20人口解锁一个政策点。（暂定）
+-点乡政府界面里的政策树按钮打开政策树。
+-点政策图标可以阅读其效果，点解锁后点应用才是使用了科技。
+    规则：
+-目前有三条政策线，每条政策线只能生效一种政策。（暂定）
+-每个政策只需要一个点数解锁。（暂定）
+-目前减少运输费用相关的科技是不生效的，后续版本开发后才会生效。
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    功能：
+-为附近的生产建筑提供服务。
+-为小镇提供从外界购买或卖出物品的功能。
+    买卖规则：
+-每周结束进行一次结算。
+-买入不限制物品种类，卖出每关限制了不同的物品种类（根据玩家反馈，此条以后会改）。
+-不管买入还是卖出，每槽位每周限制交易数量默认上限为200 。数量受政策影响。
+-点勾代表确认交易，点叉代表取消交易。即显示勾的时候没有在交易，显示叉的时候是正在等待到周末交易。
+    交易方式：
+-一次。交易一次后自动取消交易。
+-每周。每周都会持续交易。
+-维持。当处于买入时，当库存数量低于设定的维持数量时，会自动买入直到库存等于维持数量。当处于卖出时，当库存数量多余设定的维持数量时，会自动卖出，但不超过每周交易的数量上限，直到库存数量等于维持数量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1822,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C156"/>
+  <dimension ref="A1:C164"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A148" sqref="A148"/>
+    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B162" sqref="B162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -3551,6 +3705,94 @@
         <v>359</v>
       </c>
     </row>
+    <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>360</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="C157" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>363</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="C158" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>368</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C159" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>369</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="C160" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>370</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>371</v>
+      </c>
+      <c r="C161" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>373</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="C162" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>375</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="C163" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>377</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="C164" t="s">
+        <v>374</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07304C61-5627-49A3-B796-DECC2F1F4129}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBD4D0A-7D26-48AF-AAC3-73743412B09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="24990" windowHeight="11625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="381">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="698">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -412,14 +412,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Cottage</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Large residential</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>城镇公寓</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -427,9 +419,6 @@
     <t>乡间小道</t>
   </si>
   <si>
-    <t>Country road</t>
-  </si>
-  <si>
     <t>水泥路</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -619,10 +608,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>市政中心</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>小型矿井</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -708,14 +693,6 @@
   </si>
   <si>
     <t>Iron</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Iron</t>
-  </si>
-  <si>
-    <t>生铁</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Fur</t>
@@ -770,10 +747,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>SteamedBread</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IronMaterial</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1085,18 +1058,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Money reach 20,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Averrage happiness reach 80</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Population reach 300</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30002Aim1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1125,18 +1086,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Money reach 30,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Averrage happiness reach 85</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Population reach 400</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30003Aim1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1153,18 +1102,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Money reach 40,000</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Averrage happiness reach 90</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Population reach 500</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>30001SpcielIntroduce</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1190,18 +1127,6 @@
   </si>
   <si>
     <t>Plain</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suitable for the development of agriculture</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suitable for the development of mining</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>suitable for the development of manufacturing industry</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1292,15 +1217,6 @@
     <t>平原</t>
   </si>
   <si>
-    <t>This is a simulated business game with a rural background. Build farmland, logging yards, quarries and other buildings to produce basic resources, build processing plants to produce more profitable products, sell products in the market for profit, upgrade houses and workplaces for villagers to increase happiness, and unlock policies in the township government Regulate production. The ultimate goal is to build a beautiful new countryside.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>这是一款以农村为背景的模拟经营游戏。建造农田、伐木场、采石场等建筑来生产基础资源，建造加工厂来生产利润更高的产品，在市场售卖产品获得利润，为村民升级房屋和工作场所增加幸福度，在乡政府解锁政策调控生产。最终目标是建立美丽新农村。
-内测玩家交流QQ群号：714451531</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>AboutLog</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1341,10 +1257,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Please give a name for the save file</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>NameSave1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1417,10 +1329,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Return</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>QuitGame</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1458,10 +1366,6 @@
   </si>
   <si>
     <t>WarnNoRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>警告：不能抵达市场</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1485,15 +1389,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IntroBuildRoad</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1509,10 +1405,6 @@
 -横穿过水面的道路会自动变成桥梁（并且不额外产生费用）。
 -可以覆盖已有道路来实现升级道路。
 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1554,15 +1446,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Null</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>IntroMarket</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Null</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1589,13 +1473,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">    存档
--存档路径：游戏根目录下BiShe_Data\Resources\Saves
--复制存档时，请在Saves文件夹里创建同名文件夹，再把存档文件放进去（.save），才能正常读取。
--由于目前优化不佳，读档耗时很长，粗略估算公式是1000人口对应一分钟加载时间。请读档黑屏时耐心等待，乱点鼠标会导致游戏闪退。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">    解锁方式：
 -每20人口解锁一个政策点。（暂定）
 -点乡政府界面里的政策树按钮打开政策树。
@@ -1622,12 +1499,1309 @@
 -维持。当处于买入时，当库存数量低于设定的维持数量时，会自动买入直到库存等于维持数量。当处于卖出时，当库存数量多余设定的维持数量时，会自动卖出，但不超过每周交易的数量上限，直到库存数量等于维持数量。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>ScreenRatio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FullScreen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全屏：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>分辨率：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Screen Ratio</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Full Screen</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>警告：不在市场范围内</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Continue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Help</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帮助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Camera</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>镜头</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>修路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildRoad</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Road</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Technology</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科技</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>消耗食物，提供劳动力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>公路是经济发展的动脉</t>
+  </si>
+  <si>
+    <t>存储资源+1000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储资源+4000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>存储资源+10000</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>买入或卖出产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出作物产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出养殖产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对原料进行加工，产出附加值更高的产品</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>产出木料</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政府中心，研究政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产矿物</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>捕捞鱼类</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这是一座桥梁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造消耗：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产周期:</t>
+  </si>
+  <si>
+    <t>效率:</t>
+  </si>
+  <si>
+    <t>产出率:</t>
+  </si>
+  <si>
+    <t>Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Day1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>矿脉丰度:</t>
+  </si>
+  <si>
+    <t>Sell</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卖出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TradeRecord</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Trade record</t>
+  </si>
+  <si>
+    <t>贸易记录</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Sell1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>GetProfit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>获利</t>
+  </si>
+  <si>
+    <t>Buy1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>购买</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Buy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BuildMode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>建造模式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build mode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RMBExit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>（鼠标右键退出）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道路不能与建筑重叠</t>
+  </si>
+  <si>
+    <t>道路终点不能在水里</t>
+  </si>
+  <si>
+    <t>道路起点不能设在已被占用的位置</t>
+  </si>
+  <si>
+    <t>不能在地图外建造</t>
+  </si>
+  <si>
+    <t>不能在地图外建造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不能在水面下建造建筑</t>
+  </si>
+  <si>
+    <t>建筑入口已被占用！无法建造</t>
+  </si>
+  <si>
+    <t>建筑不能建在过于陡峭的位置</t>
+  </si>
+  <si>
+    <t>幸福度</t>
+  </si>
+  <si>
+    <t>Happiness</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>维护费用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MaintainanceCost</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产效率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ProductionEfficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulation</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>恭喜过关！</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Congratulations!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Policy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>政策</t>
+  </si>
+  <si>
+    <t>RemainPoints</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Marketing</t>
+  </si>
+  <si>
+    <t>营销</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction</t>
+  </si>
+  <si>
+    <t>建设</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Construction</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Administrate</t>
+  </si>
+  <si>
+    <t>管理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀设计Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通优化Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固建造Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化建筑Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀设计Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通优化Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化建筑Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优秀设计Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>稳固建造Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>优化建筑Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>交通优化Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加值Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩大市场Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿营销Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂直销Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加值Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿营销Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩大市场Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>附加值Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>工厂直销Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>饥饿营销Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩大市场Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才管理Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学生产Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效生产Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中生产Ⅰ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学生产Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才管理Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效生产Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>集中生产Ⅱ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>人才管理Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>科学生产Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>高效生产Ⅲ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40001Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40002Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40003Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40004Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40005Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40006Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40007Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40008Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40009Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40010Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40011Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40012Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40013Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40014Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40015Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40016Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40017Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40018Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40019Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40020Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40021Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40022Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40023Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40024Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40025Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40026Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40027Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40028Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40029Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40030Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40031Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40032Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40033Intro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有建筑的建造费用降低10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有建筑的运输费用降低5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有产生维护费用的建筑维护费用降低5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有建筑的建造时所需的原料花费降低10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有建筑的建造费用降低15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有建筑的运输费用降低10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有建筑的建造时所需的原料花费降低15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有建筑的建造费用降低20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有产生维护费用的建筑维护费用降低10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有建筑的建造时所需的原料花费降低20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>所有建筑的运输费用降低15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售订单的产品价格增加3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售订单的产品数量增加5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可出售订单的产品数量减少10%，价格增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售的产品价格下降5%，每次可出售的产品数量增加30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售订单的产品价格增加6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可出售订单的产品数量减少15%，价格增加20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售订单的产品数量增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售订单的产品价格增加9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售的产品价格下降10%，每次可出售的产品数量增加50%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可出售订单的产品数量减少20%，价格增加30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>出售订单的产品数量增加15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令建筑所需劳动力下降1单位</t>
+  </si>
+  <si>
+    <t>生产所需原料减少5%，生产效率增加5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产效率增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产所需原料减少10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产所需原料减少10%，生产效率增加10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令建筑所需劳动力下降2单位</t>
+  </si>
+  <si>
+    <t>生产效率增加20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产所需原料减少20%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>令建筑所需劳动力下降3单位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产所需原料减少15%，生产效率增加15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生产效率增加30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Unlock</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>解锁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Use</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>采用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Using</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已采用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>剩余点数：</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Build cost:</t>
+  </si>
+  <si>
+    <t>Hunger Marketing II</t>
+  </si>
+  <si>
+    <t>Efficient Production I</t>
+  </si>
+  <si>
+    <t>Talent Management I</t>
+  </si>
+  <si>
+    <t>Solid Construction I</t>
+  </si>
+  <si>
+    <t>Build cost reduces by 10% for all the structures</t>
+  </si>
+  <si>
+    <t>Transportation cost reduces by 5% for all the structures</t>
+  </si>
+  <si>
+    <t>Maintenance cost reduces by 5% for all the structures that require maintenance</t>
+  </si>
+  <si>
+    <t>Build cost reduces by 15% for all the structures</t>
+  </si>
+  <si>
+    <t>Transportation cost reduces by 10% for all the structures</t>
+  </si>
+  <si>
+    <t>Build cost reduces by 20% for all the structures</t>
+  </si>
+  <si>
+    <t>Maintenance cost reduces by 10% for all the structures that require maintenance</t>
+  </si>
+  <si>
+    <t>Transportation cost reduces by 15% for all the structures</t>
+  </si>
+  <si>
+    <t>Maintenance</t>
+  </si>
+  <si>
+    <t>Too steep to build on</t>
+  </si>
+  <si>
+    <t>Can't build under the water</t>
+  </si>
+  <si>
+    <t>Can't build outside the map</t>
+  </si>
+  <si>
+    <t>Rich in minerals, this town is a dreamland for mining industry to bloom</t>
+  </si>
+  <si>
+    <t>Transportation Optimization I</t>
+  </si>
+  <si>
+    <t>Optimized Construction I</t>
+  </si>
+  <si>
+    <t>Mineral abundance:</t>
+  </si>
+  <si>
+    <t>Material consumption in construction reduces by 15% for all the structures</t>
+  </si>
+  <si>
+    <t>Material consumption in construction reduces by 20% for all the structures</t>
+  </si>
+  <si>
+    <t>Material consumption in construction reduces by 10% for all the structures</t>
+  </si>
+  <si>
+    <t>Labor force required in each structure reduces by 1 unit</t>
+  </si>
+  <si>
+    <t>A sound highway network is a key driver for economic growth.</t>
+  </si>
+  <si>
+    <t>Labor Force</t>
+  </si>
+  <si>
+    <t>Market Expansion II</t>
+  </si>
+  <si>
+    <t>Added Value I</t>
+  </si>
+  <si>
+    <t>Added Value II</t>
+  </si>
+  <si>
+    <t>Added Value III</t>
+  </si>
+  <si>
+    <t>Improved Design I</t>
+  </si>
+  <si>
+    <t>Improved Design II</t>
+  </si>
+  <si>
+    <t>Transportation Optimization II</t>
+  </si>
+  <si>
+    <t>Optimized Construction II</t>
+  </si>
+  <si>
+    <t>Improved Design III</t>
+  </si>
+  <si>
+    <t>Solid Construction II</t>
+  </si>
+  <si>
+    <t>Optimized Construction III</t>
+  </si>
+  <si>
+    <t>Transportation Optimization III</t>
+  </si>
+  <si>
+    <t>Market Expansion I</t>
+  </si>
+  <si>
+    <t>Hunger Marketing I</t>
+  </si>
+  <si>
+    <t>Factory Outlet I</t>
+  </si>
+  <si>
+    <t>Factory Outlet II</t>
+  </si>
+  <si>
+    <t>Hunger Marketing III</t>
+  </si>
+  <si>
+    <t>Market Expansion III</t>
+  </si>
+  <si>
+    <t>Centralized Production I</t>
+  </si>
+  <si>
+    <t>Smart Production I</t>
+  </si>
+  <si>
+    <t>Smart Production II</t>
+  </si>
+  <si>
+    <t>Talent Management II</t>
+  </si>
+  <si>
+    <t>Efficient Production II</t>
+  </si>
+  <si>
+    <t>Centralized Production II</t>
+  </si>
+  <si>
+    <t>Talent Management III</t>
+  </si>
+  <si>
+    <t>Smart Production III</t>
+  </si>
+  <si>
+    <t>Efficient Production III</t>
+  </si>
+  <si>
+    <t>Entrance is blocked!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Points: </t>
+  </si>
+  <si>
+    <t>Sell prices increase by 3% for all the products</t>
+  </si>
+  <si>
+    <t>Sales increase by 5% for all the products</t>
+  </si>
+  <si>
+    <t>Sell prices reduce by 5%, while sales increase by 30%</t>
+  </si>
+  <si>
+    <t>Sales reduce by 10%, while sell prices increase by 10%</t>
+  </si>
+  <si>
+    <t>Sales reduce by 15%, while sell prices increase by 20%</t>
+  </si>
+  <si>
+    <t>Sell prices increase by 6% for all the products</t>
+  </si>
+  <si>
+    <t>Sales increase by 10% for all the products</t>
+  </si>
+  <si>
+    <t>Sell prices increase by 9% for all the products</t>
+  </si>
+  <si>
+    <t>Sell prices reduce by 10%, while sales increase by 50%</t>
+  </si>
+  <si>
+    <t>Sales reduce by 20%, while sell prices increase by 30%</t>
+  </si>
+  <si>
+    <t>Sales increase by 15% for all the products</t>
+  </si>
+  <si>
+    <t>Allows for the trade with merchants outside the town</t>
+  </si>
+  <si>
+    <t>Please name the save file</t>
+  </si>
+  <si>
+    <t>Money reaches 20,000</t>
+  </si>
+  <si>
+    <t>Average happiness reaches 80</t>
+  </si>
+  <si>
+    <t>Population reaches 300</t>
+  </si>
+  <si>
+    <t>Money reaches 30,000</t>
+  </si>
+  <si>
+    <t>Average happiness reaches 85</t>
+  </si>
+  <si>
+    <t>Population reaches 400</t>
+  </si>
+  <si>
+    <t>Money reaches 40,000</t>
+  </si>
+  <si>
+    <t>Average happiness reaches 90</t>
+  </si>
+  <si>
+    <t>Population reaches 500</t>
+  </si>
+  <si>
+    <t>This town features a vast, fertile plain, which gives it a unique advantage on agriculture</t>
+  </si>
+  <si>
+    <t>Provides extra storage (+1000)</t>
+  </si>
+  <si>
+    <t>Provides extra storage (+4000)</t>
+  </si>
+  <si>
+    <t>Provides extra storage (+10000)</t>
+  </si>
+  <si>
+    <t>Town Hall, Policy Research</t>
+  </si>
+  <si>
+    <t>Roads can't be built across structures</t>
+  </si>
+  <si>
+    <t>Click RMB to exit</t>
+  </si>
+  <si>
+    <t>Used to produce livestock products</t>
+  </si>
+  <si>
+    <t>Used to produce manufactured products with higher additional value</t>
+  </si>
+  <si>
+    <t>Used to produce timbers</t>
+  </si>
+  <si>
+    <t>Used to dug minerals</t>
+  </si>
+  <si>
+    <t>Used to catch fish</t>
+  </si>
+  <si>
+    <t>This is a bridge</t>
+  </si>
+  <si>
+    <t>Canned Meat</t>
+  </si>
+  <si>
+    <t>Canned Fish</t>
+  </si>
+  <si>
+    <t>Mantou</t>
+  </si>
+  <si>
+    <t>Fishing Dock</t>
+  </si>
+  <si>
+    <t>Town Hall</t>
+  </si>
+  <si>
+    <t>Every Week</t>
+  </si>
+  <si>
+    <t>Management</t>
+  </si>
+  <si>
+    <t>Material comsumption in production reduces by 5%</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Material consumption in production reduces by 5%, and production </t>
+  </si>
+  <si>
+    <t>Material comsumption in production reduces by 10%</t>
+  </si>
+  <si>
+    <t>Labor force required in each structure reduces by 2 unit</t>
+  </si>
+  <si>
+    <t>Material comsumption in production reduces by 20%</t>
+  </si>
+  <si>
+    <t>Labor force required in each structure reduces by 3 unit</t>
+  </si>
+  <si>
+    <t>Material comsumption in production reduces by 15%</t>
+  </si>
+  <si>
+    <t>Remove</t>
+  </si>
+  <si>
+    <t>这是一款以农村为背景的模拟经营游戏。建造农田、伐木场、采石场等建筑来生产基础资源，建造加工厂来生产利润更高的产品，在市场售卖产品获得利润，为村民升级房屋和工作场所增加幸福度，在乡政府解锁政策调控生产。最终目标是建立美丽新农村。
+内测玩家交流QQ群号：714451531</t>
+  </si>
+  <si>
+    <t>Provides labor force while consumes food</t>
+  </si>
+  <si>
+    <t>Roads can't be extended into the water</t>
+  </si>
+  <si>
+    <t>Roads can't start from the space that has been occupied</t>
+  </si>
+  <si>
+    <t>Used to grow crops</t>
+  </si>
+  <si>
+    <t>Mini Truck</t>
+  </si>
+  <si>
+    <t>Medium Truck</t>
+  </si>
+  <si>
+    <t>Policy</t>
+  </si>
+  <si>
+    <t>铁矿石</t>
+  </si>
+  <si>
+    <t>Production rate increases by 10%</t>
+  </si>
+  <si>
+    <t>Production rate increases by 20%</t>
+  </si>
+  <si>
+    <t>Production rate increases by 30%</t>
+  </si>
+  <si>
+    <t>Earn</t>
+  </si>
+  <si>
+    <t>Production Rate</t>
+  </si>
+  <si>
+    <t>Iron ore</t>
+  </si>
+  <si>
+    <t>Cut Stone</t>
+  </si>
+  <si>
+    <t>Logging Camps Lv2</t>
+  </si>
+  <si>
+    <t>Logging Camps Lv3</t>
+  </si>
+  <si>
+    <t>Factory</t>
+  </si>
+  <si>
+    <t>Lying at seaside, this town will be a future centre for manufactured goods trade</t>
+  </si>
+  <si>
+    <t>Money</t>
+  </si>
+  <si>
+    <t>Dirt Road</t>
+  </si>
+  <si>
+    <t>Livestock Farm Lv3</t>
+  </si>
+  <si>
+    <t>Farmland Lv2</t>
+  </si>
+  <si>
+    <t>Farmland Lv3</t>
+  </si>
+  <si>
+    <t>Folk House Lv1</t>
+  </si>
+  <si>
+    <t>Folk House Lv2</t>
+  </si>
+  <si>
+    <t>Folk House Lv3</t>
+  </si>
+  <si>
+    <t>Mine Lv2</t>
+  </si>
+  <si>
+    <t>Mine Lv3</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Road construction:
+-Click the road tab in the build button, click a road icon to enter the road construction mode
+-Click the first time to determine the starting point of the road
+-Move the mouse (no need to hold down the left mouse button)
+-Click the second time to confirm the end of the road
+-After the end point is confirmed, a confirmation pop-up window will pop up, click to confirm the construction, and click the cross to cancel the construction.
+-If resources are sufficient, construction will be completed.
+     Hint:
+-The starting point of the road must be placed on an existing road, and the ending point cannot be placed in the water, and other buildings cannot be crossed in the middle, but the road can be crossed.
+-The road that crosses the water surface will automatically become a bridge (and no additional cost will be incurred).
+-Can cover existing roads to achieve upgrade roads.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Construction tips:
+-Click the build button in the lower right corner to open the building construction menu.
+-Click the tab to switch the building type.
+-Clicking on the icon of the corresponding building will generate a preview of the building at the mouse.
+-You cannot build when the building preview is red, and can only be built when it is green.
+-The building must be placed close to the road, and the green arrow side should be close to the road. It cannot be overlapped with other buildings, nor can it be built in water.
+-Press R to rotate the building.
+-The right mouse button can exit the construction state.
+-Same Building can be built continuously
+     Special Instructions:
+-The side of the fishing port with boats needs to be built in the water, and the arrow should stick to the road.
+-The mine will only produce output on the gray land.
+-There will be no output when there are no mature trees around the logging camps.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Production panel:
+-Clicking on the building in the non-built state will open the production panel.
+-The production panel can switch production items, increase or decrease workers, upgrade and dismantle operations.
+-Efficiency is proportional to the number of workers. Policy (technology) can affect efficiency.
+-At the end of the production cycle, the number of output items = productivity * standard output.
+-Upgrading requires materials. The standard output of the upgraded buildings is higher, and some buildings will unlock new formulas.
+    No output? Possible reasons
+-No workers. When there are idle residents, new production buildings will automatically fill up with workers. However, building houses will not automatically add workers to production buildings with vacancies.
+-No ingredients. Check the inventory (through the warehouse) to see if there are any remaining raw materials. In particular, if there are no adult trees around the logging farm, there will be no output.
+-Failed to ship to the market. When an item is produced, it will not be included in the inventory at the first time. It must be transported to the market by vehicle to be counted as inventory. The market is limited in scope, and it will not be shipped if it is too far away.
+-The inventory is full. Click on a warehouse to check the warehouse inventory progress bar and see if it is full. If it is full, the newly shipped items will be discarded directly.
+-Bug. If there is no problem with the above, it is most likely a bug. It is recommended to archive and read the file immediately to see if the problem can be solved.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town Hall</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town Hall Lv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Town Hall Lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>村政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>乡政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>县政府</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Destroy:
+-Building: Click on the building to pop up the production panel, click the demolish button to demolish.
+-Road: Click the button to remove the road on the left side of the construction panel, click once to remove once, for the time being, continuous removal by pressing and holding is not supported.
+-Return: 75% will be returned for demolition of buildings, and no resources will be returned for demolition of roads.
+     Warning:
+-Demolition of the last market may cause the game to crash.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Function:
+-Provide services for nearby production buildings.
+-Provide the town with the function of buying or selling items from the outside world.
+     Trading rules:
+-Settlement once a week at the end of the week.
+-There are no restrictions on the types of items purchased, and different types of items are restricted for each level sold (according to player feedback, this item will be changed in the future).
+-Regardless of buying or selling, the default limit of the number of transactions per slot per week is 200. The quantity is affected by policy.
+-Tick the tick to confirm the transaction, and the cross to cancel the transaction. That is, it is not trading when it is displayed, and when it is displayed, it is waiting to trade on the weekend.
+     Means of transaction:
+-Once. The transaction is automatically cancelled after one transaction.
+-Weekly. Continue trading every week.
+-Maintain. When buying, when the inventory quantity is lower than the set maintenance quantity, it will automatically buy until the inventory is equal to the maintenance quantity. When selling, when the inventory quantity exceeds the set maintenance quantity, it will be automatically sold, but does not exceed the upper limit of the weekly transaction quantity, until the inventory quantity is equal to the maintenance quantity.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">    Unlock:
+-One policy point is unlocked for every 20 people. (Tentative)
+-Click the policy tree button in the township government interface to open the policy tree.
+-Click on the policy icon to read the effect, and click on the application after unlocking to use the technology.
+     Tips:
+-There are currently three policy lines, and each policy line can only take effect of one policy. (Tentative)
+-Each policy only requires one point to unlock. (Tentative)
+-The technology related to the current reduction of transportation costs is not effective, and will only take effect after subsequent versions are developed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    存档
+-存档路径：游戏根目录下Countryside_Data\Resources\Saves
+-复制存档时，请在Saves文件夹里创建同名文件夹，再把存档文件放进去（.save），才能正常读取。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Archive
+-Save path: Countryside_Data\Resources\Saves under the game root directory
+-When copying the archive, please create a folder with the same name in the 'Saves' folder, and then put the archive file (.save) in it.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cycle:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficiency:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Productivity:</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">     Move:
+-Keyboard WASD
+-Mouse move to the edge of the screen
+-Move the mouse while holding down the mouse wheel
+     Zoom:
+-Scroll mouse wheel to zoom
+     Rotate:
+-(It will be supported in the future)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Countryside is a rural-town-building simulation game where you will be the planner for a small rural town. You will decide where to build farmlands, logging camps and quarry to obtain basic resources, and set up factories to make these resources into products with higher profits. With the money gained from selling these products in market, you'll be able to upgrade your towners' house and workplace and make them happier. You could unlock policies at your town hall to make things  go smoothier. Your ultimate aim is to plan a happy and bright future for all your towners.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Livestock Farm Lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1656,13 +2830,40 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -1674,10 +2875,13 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1696,9 +2900,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="好" xfId="1" builtinId="26"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1976,17 +3187,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C164"/>
+  <dimension ref="A1:E282"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A153" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B162" sqref="B162"/>
+    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C109" sqref="C109"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="39.625" customWidth="1"/>
+    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="7" max="7" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
@@ -2074,7 +3286,7 @@
         <v>14</v>
       </c>
       <c r="C8" t="s">
-        <v>13</v>
+        <v>646</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
@@ -2112,24 +3324,24 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B12" t="s">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>97</v>
+        <v>672</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -2137,7 +3349,7 @@
         <v>21</v>
       </c>
       <c r="B14" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="C14" t="s">
         <v>22</v>
@@ -2200,13 +3412,13 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B20" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="C20" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
@@ -2214,7 +3426,7 @@
         <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C21" t="s">
         <v>35</v>
@@ -2225,7 +3437,7 @@
         <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="C22" t="s">
         <v>36</v>
@@ -2236,7 +3448,7 @@
         <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C23" t="s">
         <v>37</v>
@@ -2250,7 +3462,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>38</v>
+        <v>667</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -2310,13 +3522,13 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="B30" t="s">
         <v>51</v>
       </c>
       <c r="C30" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
@@ -2357,7 +3569,7 @@
         <v>60</v>
       </c>
       <c r="B34" t="s">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="C34" t="s">
         <v>61</v>
@@ -2415,7 +3627,7 @@
         <v>59</v>
       </c>
       <c r="C39" t="s">
-        <v>70</v>
+        <v>567</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.2">
@@ -2541,1256 +3753,2557 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B51" t="s">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>98</v>
+        <v>673</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B53" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B54" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="B55" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B56" t="s">
         <v>18</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="C57" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>115</v>
+        <v>665</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>112</v>
+        <v>665</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="2" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B60" t="s">
-        <v>123</v>
-      </c>
-      <c r="C60" s="2" t="s">
-        <v>122</v>
+        <v>120</v>
+      </c>
+      <c r="C60" t="s">
+        <v>636</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B61" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C61" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B62" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>127</v>
+        <v>652</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B63" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>129</v>
+        <v>653</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B64" t="s">
+        <v>128</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B65" t="s">
+        <v>131</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B66" t="s">
         <v>132</v>
       </c>
-      <c r="B64" t="s">
-        <v>131</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="2" t="s">
+      <c r="C66" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="B65" t="s">
-        <v>134</v>
-      </c>
-      <c r="C65" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="2" t="s">
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="5" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" t="s">
+        <v>683</v>
+      </c>
+      <c r="C67" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B66" t="s">
-        <v>135</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="5" t="s">
-        <v>122</v>
-      </c>
-      <c r="B67" t="s">
+      <c r="B68" t="s">
+        <v>685</v>
+      </c>
+      <c r="C68" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="B69" t="s">
+        <v>686</v>
+      </c>
+      <c r="C69" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B70" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>672</v>
+      </c>
+      <c r="E70" s="5"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="B71" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B72" s="5" t="s">
+        <v>218</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="5" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="B74" s="5" t="s">
+        <v>225</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>673</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="5" t="s">
+        <v>143</v>
+      </c>
+      <c r="B75" s="5" t="s">
+        <v>226</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="B76" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="5" t="s">
+        <v>145</v>
+      </c>
+      <c r="B77" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="5" t="s">
+        <v>146</v>
+      </c>
+      <c r="B78" s="5" t="s">
+        <v>149</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C67" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="5" t="s">
-        <v>139</v>
-      </c>
-      <c r="B68" t="s">
+      <c r="B79" s="5" t="s">
+        <v>152</v>
+      </c>
+      <c r="C79" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C68" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="5" t="s">
-        <v>140</v>
-      </c>
-      <c r="B69" t="s">
-        <v>150</v>
-      </c>
-      <c r="C69" s="5" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="5" t="s">
-        <v>141</v>
-      </c>
-      <c r="B70" s="5" t="s">
-        <v>223</v>
-      </c>
-      <c r="C70" s="5" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="5" t="s">
-        <v>142</v>
-      </c>
-      <c r="B71" s="5" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="5" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="5" t="s">
-        <v>143</v>
-      </c>
-      <c r="B72" s="5" t="s">
-        <v>225</v>
-      </c>
-      <c r="C72" s="5" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="B73" s="5" t="s">
-        <v>231</v>
-      </c>
-      <c r="C73" s="5" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="5" t="s">
-        <v>145</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C74" s="5" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="5" t="s">
-        <v>146</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C75" s="5" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="B76" s="5" t="s">
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C76" s="5" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="5" t="s">
-        <v>148</v>
-      </c>
-      <c r="B77" s="5" t="s">
-        <v>152</v>
-      </c>
-      <c r="C77" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="5" t="s">
-        <v>149</v>
-      </c>
-      <c r="B78" s="5" t="s">
+      <c r="B80" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C78" s="5" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="5" t="s">
+      <c r="C80" s="5" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="B79" s="5" t="s">
-        <v>156</v>
-      </c>
-      <c r="C79" s="5" t="s">
+      <c r="B81" s="5" t="s">
+        <v>155</v>
+      </c>
+      <c r="C81" s="5" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="5" t="s">
-        <v>155</v>
-      </c>
-      <c r="B80" s="5" t="s">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="B82" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C80" s="5" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="B81" s="5" t="s">
+      <c r="C82" s="5" t="s">
+        <v>654</v>
+      </c>
+      <c r="E82" s="5"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C81" s="5" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="5" t="s">
+      <c r="B83" s="5" t="s">
+        <v>160</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="5" t="s">
+        <v>161</v>
+      </c>
+      <c r="B84" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="B82" s="5" t="s">
+      <c r="C84" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C82" s="5" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="5" t="s">
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B83" s="5" t="s">
+      <c r="B85" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C83" s="5" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="5" t="s">
+      <c r="C85" s="5" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B84" s="5" t="s">
+      <c r="B86" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C84" s="5" t="s">
+      <c r="C86" s="5" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="5" t="s">
-        <v>167</v>
-      </c>
-      <c r="B85" s="5" t="s">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C85" s="5" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="5" t="s">
+      <c r="B87" s="5" t="s">
+        <v>655</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>661</v>
+      </c>
+      <c r="E87" s="5"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B86" s="5" t="s">
+      <c r="B88" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C86" s="5" t="s">
+      <c r="C88" s="5" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="5" t="s">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="B89" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>172</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B87" s="5" t="s">
+      <c r="C90" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
         <v>174</v>
       </c>
-      <c r="C87" s="5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="5" t="s">
+      <c r="B91" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B88" s="5" t="s">
+      <c r="C91" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
         <v>176</v>
       </c>
-      <c r="C88" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="5" t="s">
-        <v>241</v>
-      </c>
-      <c r="B89" s="5" t="s">
+      <c r="B92" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C89" s="5" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" t="s">
+      <c r="C92" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
         <v>178</v>
       </c>
-      <c r="B90" s="5" t="s">
+      <c r="B93" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C90" t="s">
+      <c r="C93" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" t="s">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
         <v>180</v>
       </c>
-      <c r="B91" s="5" t="s">
+      <c r="B94" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C91" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" t="s">
+      <c r="C94" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
         <v>182</v>
       </c>
-      <c r="B92" s="5" t="s">
+      <c r="B95" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C92" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" t="s">
+      <c r="C95" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
         <v>184</v>
       </c>
-      <c r="B93" s="5" t="s">
+      <c r="B96" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C93" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" t="s">
-        <v>186</v>
-      </c>
-      <c r="B94" s="5" t="s">
-        <v>187</v>
-      </c>
-      <c r="C94" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" t="s">
-        <v>189</v>
-      </c>
-      <c r="B95" s="5" t="s">
-        <v>190</v>
-      </c>
-      <c r="C95" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" t="s">
-        <v>191</v>
-      </c>
-      <c r="B96" s="5" t="s">
-        <v>192</v>
-      </c>
       <c r="C96" t="s">
-        <v>191</v>
+        <v>635</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>194</v>
+        <v>187</v>
       </c>
       <c r="C97" t="s">
-        <v>193</v>
+        <v>186</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>195</v>
+        <v>188</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>196</v>
+        <v>189</v>
       </c>
       <c r="C98" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="C99" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="C100" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>204</v>
+        <v>197</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>206</v>
+        <v>199</v>
       </c>
       <c r="C101" t="s">
-        <v>208</v>
+        <v>201</v>
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>205</v>
+        <v>198</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>207</v>
+        <v>200</v>
       </c>
       <c r="C102" t="s">
-        <v>209</v>
+        <v>202</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>210</v>
+        <v>203</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>211</v>
+        <v>204</v>
       </c>
       <c r="C103" t="s">
-        <v>212</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>213</v>
+        <v>206</v>
       </c>
       <c r="B104" s="5" t="s">
-        <v>214</v>
+        <v>207</v>
       </c>
       <c r="C104" t="s">
-        <v>215</v>
+        <v>208</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>216</v>
+        <v>209</v>
       </c>
       <c r="B105" s="5" t="s">
-        <v>217</v>
+        <v>210</v>
       </c>
       <c r="C105" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="B106" t="s">
-        <v>219</v>
+        <v>212</v>
       </c>
       <c r="C106" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="B107" s="5" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="C107" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B108" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="C108" t="s">
-        <v>226</v>
+        <v>674</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="5" t="s">
-        <v>227</v>
+        <v>220</v>
       </c>
       <c r="B109" s="5" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>227</v>
+        <v>697</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A110" s="5" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B110" s="5" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>229</v>
+        <v>669</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
       <c r="B111" s="5" t="s">
-        <v>235</v>
+        <v>228</v>
       </c>
       <c r="C111" t="s">
-        <v>234</v>
+        <v>227</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>236</v>
+        <v>229</v>
       </c>
       <c r="B112" t="s">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="C112" t="s">
-        <v>236</v>
+        <v>670</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>237</v>
+        <v>230</v>
       </c>
       <c r="B113" t="s">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="C113" t="s">
-        <v>237</v>
+        <v>671</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A114" s="5" t="s">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="B114" s="5" t="s">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>246</v>
+        <v>663</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="5" t="s">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="B115" s="5" t="s">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>247</v>
+        <v>664</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B116" s="5" t="s">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="C116" t="s">
-        <v>250</v>
+        <v>243</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B117" s="5" t="s">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="C117" t="s">
-        <v>254</v>
+        <v>247</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="B118" s="5" t="s">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="C118" t="s">
-        <v>255</v>
+        <v>248</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B119" s="5" t="s">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="C119" t="s">
-        <v>257</v>
+        <v>250</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="B120" s="5" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
       <c r="B121" s="5" t="s">
-        <v>262</v>
+        <v>255</v>
       </c>
       <c r="C121" t="s">
-        <v>261</v>
+        <v>254</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C122" t="s">
-        <v>268</v>
+        <v>610</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="B123" t="s">
-        <v>266</v>
+        <v>259</v>
       </c>
       <c r="C123" t="s">
-        <v>269</v>
+        <v>611</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="B124" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
       <c r="C124" t="s">
-        <v>270</v>
+        <v>612</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="B125" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C125" t="s">
-        <v>278</v>
+        <v>613</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="B126" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="C126" t="s">
-        <v>279</v>
+        <v>614</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="B127" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C127" t="s">
-        <v>280</v>
+        <v>615</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="C128" t="s">
-        <v>285</v>
+        <v>616</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>313</v>
+        <v>294</v>
       </c>
       <c r="B129" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="C129" t="s">
-        <v>286</v>
+        <v>617</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>314</v>
+        <v>295</v>
       </c>
       <c r="B130" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="C130" t="s">
-        <v>287</v>
+        <v>618</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="B131" t="s">
-        <v>291</v>
+        <v>275</v>
       </c>
       <c r="C131" t="s">
-        <v>295</v>
+        <v>619</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>290</v>
+        <v>274</v>
       </c>
       <c r="B132" t="s">
-        <v>292</v>
+        <v>276</v>
       </c>
       <c r="C132" t="s">
-        <v>296</v>
+        <v>558</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="B133" t="s">
-        <v>293</v>
+        <v>277</v>
       </c>
       <c r="C133" t="s">
-        <v>297</v>
+        <v>666</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>315</v>
+        <v>296</v>
       </c>
       <c r="B134" t="s">
-        <v>298</v>
+        <v>279</v>
       </c>
       <c r="C134" t="s">
-        <v>294</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="B135" t="s">
-        <v>300</v>
+        <v>281</v>
       </c>
       <c r="C135" t="s">
-        <v>299</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="B136" t="s">
-        <v>302</v>
+        <v>283</v>
       </c>
       <c r="C136" t="s">
-        <v>301</v>
+        <v>282</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>303</v>
+        <v>284</v>
       </c>
       <c r="B137" t="s">
-        <v>304</v>
+        <v>285</v>
       </c>
       <c r="C137" t="s">
-        <v>306</v>
+        <v>287</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
       <c r="B138" t="s">
-        <v>307</v>
+        <v>288</v>
       </c>
       <c r="C138" t="s">
-        <v>305</v>
+        <v>286</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="B139" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="C139" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="156.75" x14ac:dyDescent="0.2">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="299.25" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="B140" s="7" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="C140" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3" ht="142.5" x14ac:dyDescent="0.2">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" ht="333.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>318</v>
+        <v>297</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="C141" t="s">
-        <v>316</v>
+        <v>647</v>
+      </c>
+      <c r="C141" s="1" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
       <c r="B142" t="s">
-        <v>320</v>
+        <v>299</v>
       </c>
       <c r="C142" t="s">
-        <v>319</v>
+        <v>298</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
       <c r="B143" t="s">
-        <v>322</v>
+        <v>301</v>
       </c>
       <c r="C143" t="s">
-        <v>321</v>
+        <v>300</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>323</v>
+        <v>302</v>
       </c>
       <c r="B144" t="s">
-        <v>324</v>
+        <v>303</v>
       </c>
       <c r="C144" t="s">
-        <v>325</v>
+        <v>304</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>326</v>
+        <v>305</v>
       </c>
       <c r="B145" t="s">
-        <v>327</v>
+        <v>306</v>
       </c>
       <c r="C145" t="s">
-        <v>328</v>
+        <v>609</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>329</v>
+        <v>307</v>
       </c>
       <c r="B146" t="s">
-        <v>330</v>
+        <v>308</v>
       </c>
       <c r="C146" t="s">
-        <v>331</v>
+        <v>309</v>
       </c>
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
       <c r="B147" t="s">
-        <v>333</v>
+        <v>311</v>
       </c>
       <c r="C147" t="s">
-        <v>332</v>
+        <v>310</v>
       </c>
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>335</v>
+        <v>313</v>
       </c>
       <c r="B148" t="s">
-        <v>336</v>
+        <v>314</v>
       </c>
       <c r="C148" t="s">
-        <v>334</v>
+        <v>312</v>
       </c>
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
       <c r="B149" t="s">
-        <v>338</v>
+        <v>316</v>
       </c>
       <c r="C149" t="s">
-        <v>337</v>
+        <v>315</v>
       </c>
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>339</v>
+        <v>317</v>
       </c>
       <c r="B150" t="s">
-        <v>340</v>
+        <v>318</v>
       </c>
       <c r="C150" t="s">
-        <v>344</v>
+        <v>322</v>
       </c>
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>341</v>
+        <v>319</v>
       </c>
       <c r="B151" t="s">
-        <v>342</v>
+        <v>320</v>
       </c>
       <c r="C151" t="s">
-        <v>343</v>
+        <v>321</v>
       </c>
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>345</v>
+        <v>323</v>
       </c>
       <c r="B152" t="s">
-        <v>346</v>
+        <v>324</v>
       </c>
       <c r="C152" t="s">
-        <v>347</v>
+        <v>358</v>
       </c>
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="B153" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C153" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B154" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="C154" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="B155" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="C155" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
+        <v>334</v>
+      </c>
+      <c r="B156" t="s">
         <v>357</v>
       </c>
-      <c r="B156" t="s">
-        <v>358</v>
-      </c>
       <c r="C156" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="157" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>360</v>
+        <v>336</v>
       </c>
       <c r="B157" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="C157" t="s">
-        <v>362</v>
+        <v>337</v>
+      </c>
+      <c r="C157" s="1" t="s">
+        <v>695</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>363</v>
+        <v>338</v>
       </c>
       <c r="B158" s="1" t="s">
-        <v>365</v>
-      </c>
-      <c r="C158" t="s">
-        <v>364</v>
+        <v>339</v>
+      </c>
+      <c r="C158" s="1" t="s">
+        <v>677</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>368</v>
+        <v>341</v>
       </c>
       <c r="B159" s="1" t="s">
-        <v>367</v>
-      </c>
-      <c r="C159" t="s">
-        <v>366</v>
+        <v>340</v>
+      </c>
+      <c r="C159" s="1" t="s">
+        <v>678</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>369</v>
+        <v>342</v>
       </c>
       <c r="B160" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="C160" t="s">
-        <v>374</v>
+        <v>347</v>
+      </c>
+      <c r="C160" s="1" t="s">
+        <v>679</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>370</v>
+        <v>343</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="C161" t="s">
-        <v>372</v>
+        <v>344</v>
+      </c>
+      <c r="C161" s="1" t="s">
+        <v>687</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>373</v>
+        <v>345</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="C162" t="s">
-        <v>362</v>
+        <v>350</v>
+      </c>
+      <c r="C162" s="1" t="s">
+        <v>688</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>375</v>
+        <v>346</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="C163" t="s">
-        <v>374</v>
+        <v>349</v>
+      </c>
+      <c r="C163" s="1" t="s">
+        <v>689</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
+        <v>348</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>690</v>
+      </c>
+      <c r="C164" s="1" t="s">
+        <v>691</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>351</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="C165" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>352</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="C166" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>359</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C167" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>361</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="C168" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>364</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>363</v>
+      </c>
+      <c r="C169" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>366</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>367</v>
+      </c>
+      <c r="C170" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A171" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="B171" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="C171" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A172" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="B172" s="8" t="s">
+        <v>369</v>
+      </c>
+      <c r="C172" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A173" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="B173" s="5" t="s">
+        <v>370</v>
+      </c>
+      <c r="C173" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A174" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B174" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C174" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A175" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="B175" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="C175" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A176" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B176" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="C176" t="s">
+        <v>608</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A177" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="B177" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C177" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A178" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="B178" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="C178" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A179" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="B179" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="C179" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A180" s="5" t="s">
         <v>377</v>
       </c>
-      <c r="B164" s="1" t="s">
+      <c r="B180" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C180" t="s">
+        <v>628</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A181" s="5" t="s">
         <v>378</v>
       </c>
-      <c r="C164" t="s">
-        <v>374</v>
+      <c r="B181" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="C181" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A182" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B182" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="C182" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="183" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A183" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="B183" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C183" t="s">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A184" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="B184" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="C184" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="185" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A185" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="B185" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="C185" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="186" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>384</v>
+      </c>
+      <c r="B186" t="s">
+        <v>384</v>
+      </c>
+      <c r="C186" t="s">
+        <v>692</v>
+      </c>
+    </row>
+    <row r="187" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>385</v>
+      </c>
+      <c r="B187" t="s">
+        <v>385</v>
+      </c>
+      <c r="C187" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="188" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>386</v>
+      </c>
+      <c r="B188" t="s">
+        <v>386</v>
+      </c>
+      <c r="C188" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="189" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>388</v>
+      </c>
+      <c r="B189" t="s">
+        <v>389</v>
+      </c>
+      <c r="C189" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="190" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>390</v>
+      </c>
+      <c r="B190" t="s">
+        <v>390</v>
+      </c>
+      <c r="C190" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="191" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>391</v>
+      </c>
+      <c r="B191" t="s">
+        <v>392</v>
+      </c>
+      <c r="C191" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="192" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>393</v>
+      </c>
+      <c r="B192" t="s">
+        <v>395</v>
+      </c>
+      <c r="C192" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="193" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>396</v>
+      </c>
+      <c r="B193" t="s">
+        <v>397</v>
+      </c>
+      <c r="C193" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="194" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>398</v>
+      </c>
+      <c r="B194" t="s">
+        <v>399</v>
+      </c>
+      <c r="C194" s="9" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="195" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>400</v>
+      </c>
+      <c r="B195" t="s">
+        <v>401</v>
+      </c>
+      <c r="C195" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="196" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>403</v>
+      </c>
+      <c r="B196" t="s">
+        <v>404</v>
+      </c>
+      <c r="C196" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="197" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>406</v>
+      </c>
+      <c r="B197" t="s">
+        <v>407</v>
+      </c>
+      <c r="C197" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="198" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>408</v>
+      </c>
+      <c r="B198" t="s">
+        <v>408</v>
+      </c>
+      <c r="C198" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="199" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>409</v>
+      </c>
+      <c r="B199" t="s">
+        <v>409</v>
+      </c>
+      <c r="C199" t="s">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="200" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>410</v>
+      </c>
+      <c r="B200" t="s">
+        <v>410</v>
+      </c>
+      <c r="C200" t="s">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="201" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>412</v>
+      </c>
+      <c r="B201" t="s">
+        <v>411</v>
+      </c>
+      <c r="C201" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="202" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>413</v>
+      </c>
+      <c r="B202" t="s">
+        <v>413</v>
+      </c>
+      <c r="C202" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="203" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>414</v>
+      </c>
+      <c r="B203" t="s">
+        <v>414</v>
+      </c>
+      <c r="C203" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="204" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>415</v>
+      </c>
+      <c r="B204" t="s">
+        <v>415</v>
+      </c>
+      <c r="C204" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="205" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>417</v>
+      </c>
+      <c r="B205" t="s">
+        <v>416</v>
+      </c>
+      <c r="C205" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="206" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>419</v>
+      </c>
+      <c r="B206" t="s">
+        <v>418</v>
+      </c>
+      <c r="C206" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="207" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>421</v>
+      </c>
+      <c r="B207" t="s">
+        <v>420</v>
+      </c>
+      <c r="C207" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="208" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>422</v>
+      </c>
+      <c r="B208" t="s">
+        <v>423</v>
+      </c>
+      <c r="C208" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>425</v>
+      </c>
+      <c r="B209" t="s">
+        <v>426</v>
+      </c>
+      <c r="C209" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>427</v>
+      </c>
+      <c r="B210" t="s">
+        <v>540</v>
+      </c>
+      <c r="C210" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>428</v>
+      </c>
+      <c r="B211" t="s">
+        <v>429</v>
+      </c>
+      <c r="C211" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>432</v>
+      </c>
+      <c r="B212" t="s">
+        <v>431</v>
+      </c>
+      <c r="C212" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>433</v>
+      </c>
+      <c r="B213" t="s">
+        <v>434</v>
+      </c>
+      <c r="C213" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>435</v>
+      </c>
+      <c r="B214" t="s">
+        <v>435</v>
+      </c>
+      <c r="C214" t="s">
+        <v>572</v>
+      </c>
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>436</v>
+      </c>
+      <c r="B215" t="s">
+        <v>436</v>
+      </c>
+      <c r="C215" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>437</v>
+      </c>
+      <c r="B216" t="s">
+        <v>437</v>
+      </c>
+      <c r="C216" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>438</v>
+      </c>
+      <c r="B217" t="s">
+        <v>438</v>
+      </c>
+      <c r="C217" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>439</v>
+      </c>
+      <c r="B218" t="s">
+        <v>439</v>
+      </c>
+      <c r="C218" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>440</v>
+      </c>
+      <c r="B219" t="s">
+        <v>440</v>
+      </c>
+      <c r="C219" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="220" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>441</v>
+      </c>
+      <c r="B220" t="s">
+        <v>441</v>
+      </c>
+      <c r="C220" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="221" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>442</v>
+      </c>
+      <c r="B221" t="s">
+        <v>442</v>
+      </c>
+      <c r="C221" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="222" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>443</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+      <c r="C222" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="223" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>444</v>
+      </c>
+      <c r="C223" t="s">
+        <v>578</v>
+      </c>
+    </row>
+    <row r="224" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>445</v>
+      </c>
+      <c r="B224" t="s">
+        <v>445</v>
+      </c>
+      <c r="C224" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A225" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="B225" s="10" t="s">
+        <v>446</v>
+      </c>
+      <c r="C225" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>447</v>
+      </c>
+      <c r="B226" t="s">
+        <v>447</v>
+      </c>
+      <c r="C226" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A227" t="s">
+        <v>448</v>
+      </c>
+      <c r="B227" t="s">
+        <v>448</v>
+      </c>
+      <c r="C227" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A228" t="s">
+        <v>449</v>
+      </c>
+      <c r="B228" t="s">
+        <v>449</v>
+      </c>
+      <c r="C228" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="B229" s="10" t="s">
+        <v>450</v>
+      </c>
+      <c r="C229" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>451</v>
+      </c>
+      <c r="B230" t="s">
+        <v>451</v>
+      </c>
+      <c r="C230" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>452</v>
+      </c>
+      <c r="B231" t="s">
+        <v>452</v>
+      </c>
+      <c r="C231" t="s">
+        <v>568</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="B232" s="10" t="s">
+        <v>453</v>
+      </c>
+      <c r="C232" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>454</v>
+      </c>
+      <c r="B233" t="s">
+        <v>454</v>
+      </c>
+      <c r="C233" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>455</v>
+      </c>
+      <c r="B234" t="s">
+        <v>455</v>
+      </c>
+      <c r="C234" t="s">
+        <v>584</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>456</v>
+      </c>
+      <c r="B235" t="s">
+        <v>456</v>
+      </c>
+      <c r="C235" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>457</v>
+      </c>
+      <c r="B236" t="s">
+        <v>457</v>
+      </c>
+      <c r="C236" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>458</v>
+      </c>
+      <c r="B237" t="s">
+        <v>458</v>
+      </c>
+      <c r="C237" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>459</v>
+      </c>
+      <c r="B238" t="s">
+        <v>459</v>
+      </c>
+      <c r="C238" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>460</v>
+      </c>
+      <c r="B239" t="s">
+        <v>460</v>
+      </c>
+      <c r="C239" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>461</v>
+      </c>
+      <c r="B240" t="s">
+        <v>461</v>
+      </c>
+      <c r="C240" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="241" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>462</v>
+      </c>
+      <c r="B241" t="s">
+        <v>462</v>
+      </c>
+      <c r="C241" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="242" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>463</v>
+      </c>
+      <c r="B242" t="s">
+        <v>463</v>
+      </c>
+      <c r="C242" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="243" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>464</v>
+      </c>
+      <c r="B243" t="s">
+        <v>464</v>
+      </c>
+      <c r="C243" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="244" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>465</v>
+      </c>
+      <c r="B244" t="s">
+        <v>465</v>
+      </c>
+      <c r="C244" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="245" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>466</v>
+      </c>
+      <c r="B245" t="s">
+        <v>466</v>
+      </c>
+      <c r="C245" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="246" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>467</v>
+      </c>
+      <c r="B246" t="s">
+        <v>467</v>
+      </c>
+      <c r="C246" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="247" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A247" s="11" t="s">
+        <v>468</v>
+      </c>
+      <c r="B247" t="s">
+        <v>501</v>
+      </c>
+      <c r="C247" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="248" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A248" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="B248" t="s">
+        <v>502</v>
+      </c>
+      <c r="C248" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="249" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A249" s="11" t="s">
+        <v>470</v>
+      </c>
+      <c r="B249" t="s">
+        <v>503</v>
+      </c>
+      <c r="C249" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="250" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A250" s="11" t="s">
+        <v>471</v>
+      </c>
+      <c r="B250" t="s">
+        <v>504</v>
+      </c>
+      <c r="C250" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="251" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A251" s="11" t="s">
+        <v>472</v>
+      </c>
+      <c r="B251" t="s">
+        <v>505</v>
+      </c>
+      <c r="C251" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="252" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A252" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="B252" t="s">
+        <v>506</v>
+      </c>
+      <c r="C252" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="253" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A253" s="11" t="s">
+        <v>474</v>
+      </c>
+      <c r="B253" t="s">
+        <v>507</v>
+      </c>
+      <c r="C253" t="s">
+        <v>562</v>
+      </c>
+    </row>
+    <row r="254" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A254" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="B254" t="s">
+        <v>508</v>
+      </c>
+      <c r="C254" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="255" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A255" s="11" t="s">
+        <v>476</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+      <c r="C255" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="256" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A256" s="11" t="s">
+        <v>477</v>
+      </c>
+      <c r="B256" t="s">
+        <v>510</v>
+      </c>
+      <c r="C256" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="257" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A257" s="11" t="s">
+        <v>478</v>
+      </c>
+      <c r="B257" t="s">
+        <v>511</v>
+      </c>
+      <c r="C257" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="258" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A258" s="11" t="s">
+        <v>479</v>
+      </c>
+      <c r="B258" t="s">
+        <v>512</v>
+      </c>
+      <c r="C258" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="259" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A259" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="B259" t="s">
+        <v>513</v>
+      </c>
+      <c r="C259" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="260" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A260" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="B260" t="s">
+        <v>514</v>
+      </c>
+      <c r="C260" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="261" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A261" s="11" t="s">
+        <v>482</v>
+      </c>
+      <c r="B261" t="s">
+        <v>515</v>
+      </c>
+      <c r="C261" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="262" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A262" s="11" t="s">
+        <v>483</v>
+      </c>
+      <c r="B262" t="s">
+        <v>516</v>
+      </c>
+      <c r="C262" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="263" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A263" s="11" t="s">
+        <v>484</v>
+      </c>
+      <c r="B263" t="s">
+        <v>517</v>
+      </c>
+      <c r="C263" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="264" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A264" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="B264" t="s">
+        <v>518</v>
+      </c>
+      <c r="C264" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="265" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A265" s="11" t="s">
+        <v>486</v>
+      </c>
+      <c r="B265" t="s">
+        <v>519</v>
+      </c>
+      <c r="C265" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="266" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A266" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="B266" t="s">
+        <v>520</v>
+      </c>
+      <c r="C266" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="267" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A267" s="11" t="s">
+        <v>488</v>
+      </c>
+      <c r="B267" t="s">
+        <v>521</v>
+      </c>
+      <c r="C267" t="s">
+        <v>606</v>
+      </c>
+    </row>
+    <row r="268" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A268" s="11" t="s">
+        <v>489</v>
+      </c>
+      <c r="B268" t="s">
+        <v>522</v>
+      </c>
+      <c r="C268" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="269" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A269" s="11" t="s">
+        <v>490</v>
+      </c>
+      <c r="B269" t="s">
+        <v>523</v>
+      </c>
+      <c r="C269" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="270" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A270" s="11" t="s">
+        <v>491</v>
+      </c>
+      <c r="B270" t="s">
+        <v>524</v>
+      </c>
+      <c r="C270" t="s">
+        <v>640</v>
+      </c>
+    </row>
+    <row r="271" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A271" s="11" t="s">
+        <v>492</v>
+      </c>
+      <c r="B271" t="s">
+        <v>525</v>
+      </c>
+      <c r="C271" t="s">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="272" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A272" s="11" t="s">
+        <v>493</v>
+      </c>
+      <c r="B272" t="s">
+        <v>526</v>
+      </c>
+      <c r="C272" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="273" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A273" s="11" t="s">
+        <v>494</v>
+      </c>
+      <c r="B273" t="s">
+        <v>527</v>
+      </c>
+      <c r="C273" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="274" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A274" s="11" t="s">
+        <v>495</v>
+      </c>
+      <c r="B274" t="s">
+        <v>528</v>
+      </c>
+      <c r="C274" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="275" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A275" s="11" t="s">
+        <v>496</v>
+      </c>
+      <c r="B275" t="s">
+        <v>529</v>
+      </c>
+      <c r="C275" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="276" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A276" s="11" t="s">
+        <v>497</v>
+      </c>
+      <c r="B276" t="s">
+        <v>530</v>
+      </c>
+      <c r="C276" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="277" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A277" s="11" t="s">
+        <v>498</v>
+      </c>
+      <c r="B277" t="s">
+        <v>531</v>
+      </c>
+      <c r="C277" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="278" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A278" s="11" t="s">
+        <v>499</v>
+      </c>
+      <c r="B278" t="s">
+        <v>532</v>
+      </c>
+      <c r="C278" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="279" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A279" s="11" t="s">
+        <v>500</v>
+      </c>
+      <c r="B279" t="s">
+        <v>533</v>
+      </c>
+      <c r="C279" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="280" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A280" s="11" t="s">
+        <v>534</v>
+      </c>
+      <c r="B280" t="s">
+        <v>535</v>
+      </c>
+      <c r="C280" s="11" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="281" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A281" s="11" t="s">
+        <v>536</v>
+      </c>
+      <c r="B281" t="s">
+        <v>537</v>
+      </c>
+      <c r="C281" s="11" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A282" s="11" t="s">
+        <v>538</v>
+      </c>
+      <c r="B282" t="s">
+        <v>539</v>
+      </c>
+      <c r="C282" s="11" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDBD4D0A-7D26-48AF-AAC3-73743412B09C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B570D8C-AE01-4074-9FF0-DEE1627CF2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="846" uniqueCount="698">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="737">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2597,9 +2597,6 @@
     <t>Earn</t>
   </si>
   <si>
-    <t>Production Rate</t>
-  </si>
-  <si>
     <t>Iron ore</t>
   </si>
   <si>
@@ -2648,51 +2645,6 @@
     <t>Mine Lv3</t>
   </si>
   <si>
-    <t xml:space="preserve">    Road construction:
--Click the road tab in the build button, click a road icon to enter the road construction mode
--Click the first time to determine the starting point of the road
--Move the mouse (no need to hold down the left mouse button)
--Click the second time to confirm the end of the road
--After the end point is confirmed, a confirmation pop-up window will pop up, click to confirm the construction, and click the cross to cancel the construction.
--If resources are sufficient, construction will be completed.
-     Hint:
--The starting point of the road must be placed on an existing road, and the ending point cannot be placed in the water, and other buildings cannot be crossed in the middle, but the road can be crossed.
--The road that crosses the water surface will automatically become a bridge (and no additional cost will be incurred).
--Can cover existing roads to achieve upgrade roads.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    Construction tips:
--Click the build button in the lower right corner to open the building construction menu.
--Click the tab to switch the building type.
--Clicking on the icon of the corresponding building will generate a preview of the building at the mouse.
--You cannot build when the building preview is red, and can only be built when it is green.
--The building must be placed close to the road, and the green arrow side should be close to the road. It cannot be overlapped with other buildings, nor can it be built in water.
--Press R to rotate the building.
--The right mouse button can exit the construction state.
--Same Building can be built continuously
-     Special Instructions:
--The side of the fishing port with boats needs to be built in the water, and the arrow should stick to the road.
--The mine will only produce output on the gray land.
--There will be no output when there are no mature trees around the logging camps.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    Production panel:
--Clicking on the building in the non-built state will open the production panel.
--The production panel can switch production items, increase or decrease workers, upgrade and dismantle operations.
--Efficiency is proportional to the number of workers. Policy (technology) can affect efficiency.
--At the end of the production cycle, the number of output items = productivity * standard output.
--Upgrading requires materials. The standard output of the upgraded buildings is higher, and some buildings will unlock new formulas.
-    No output? Possible reasons
--No workers. When there are idle residents, new production buildings will automatically fill up with workers. However, building houses will not automatically add workers to production buildings with vacancies.
--No ingredients. Check the inventory (through the warehouse) to see if there are any remaining raw materials. In particular, if there are no adult trees around the logging farm, there will be no output.
--Failed to ship to the market. When an item is produced, it will not be included in the inventory at the first time. It must be transported to the market by vehicle to be counted as inventory. The market is limited in scope, and it will not be shipped if it is too far away.
--The inventory is full. Click on a warehouse to check the warehouse inventory progress bar and see if it is full. If it is full, the newly shipped items will be discarded directly.
--Bug. If there is no problem with the above, it is most likely a bug. It is recommended to archive and read the file immediately to see if the problem can be solved.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Town Hall</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2718,40 +2670,6 @@
   <si>
     <t>县政府</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    Destroy:
--Building: Click on the building to pop up the production panel, click the demolish button to demolish.
--Road: Click the button to remove the road on the left side of the construction panel, click once to remove once, for the time being, continuous removal by pressing and holding is not supported.
--Return: 75% will be returned for demolition of buildings, and no resources will be returned for demolition of roads.
-     Warning:
--Demolition of the last market may cause the game to crash.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    Function:
--Provide services for nearby production buildings.
--Provide the town with the function of buying or selling items from the outside world.
-     Trading rules:
--Settlement once a week at the end of the week.
--There are no restrictions on the types of items purchased, and different types of items are restricted for each level sold (according to player feedback, this item will be changed in the future).
--Regardless of buying or selling, the default limit of the number of transactions per slot per week is 200. The quantity is affected by policy.
--Tick the tick to confirm the transaction, and the cross to cancel the transaction. That is, it is not trading when it is displayed, and when it is displayed, it is waiting to trade on the weekend.
-     Means of transaction:
--Once. The transaction is automatically cancelled after one transaction.
--Weekly. Continue trading every week.
--Maintain. When buying, when the inventory quantity is lower than the set maintenance quantity, it will automatically buy until the inventory is equal to the maintenance quantity. When selling, when the inventory quantity exceeds the set maintenance quantity, it will be automatically sold, but does not exceed the upper limit of the weekly transaction quantity, until the inventory quantity is equal to the maintenance quantity.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">    Unlock:
--One policy point is unlocked for every 20 people. (Tentative)
--Click the policy tree button in the township government interface to open the policy tree.
--Click on the policy icon to read the effect, and click on the application after unlocking to use the technology.
-     Tips:
--There are currently three policy lines, and each policy line can only take effect of one policy. (Tentative)
--Each policy only requires one point to unlock. (Tentative)
--The technology related to the current reduction of transportation costs is not effective, and will only take effect after subsequent versions are developed.</t>
   </si>
   <si>
     <t xml:space="preserve">    存档
@@ -2760,12 +2678,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     Archive
--Save path: Countryside_Data\Resources\Saves under the game root directory
--When copying the archive, please create a folder with the same name in the 'Saves' folder, and then put the archive file (.save) in it.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Cycle:</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -2778,22 +2690,259 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">     Move:
--Keyboard WASD
--Mouse move to the edge of the screen
--Move the mouse while holding down the mouse wheel
-     Zoom:
--Scroll mouse wheel to zoom
-     Rotate:
--(It will be supported in the future)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Countryside is a rural-town-building simulation game where you will be the planner for a small rural town. You will decide where to build farmlands, logging camps and quarry to obtain basic resources, and set up factories to make these resources into products with higher profits. With the money gained from selling these products in market, you'll be able to upgrade your towners' house and workplace and make them happier. You could unlock policies at your town hall to make things  go smoothier. Your ultimate aim is to plan a happy and bright future for all your towners.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Livestock Farm Lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Pan camera (each of the following ways will work):
+-Press W/A/S/D on the keyboard;
+-Move the mouse to the edge of screen;
+- Hold the mouse wheel and move the mouse.
+Zoom camera:
+-Use mouse wheel to zoom in and out.
+Rotate camera:
+- (We will support this function in the future.)
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>How to build a structure:
+-Click the Build button at the bottom right corner to open the Build menu;
+-You can choose the type of structures you want to build by clicking the submenus;
+-A building preview will generate at your cursor after you select the structure that you wish to build from Build menu.
+-The building preview is green, which means this structure can be placed here. Otherwise, you should locate it at somewhere else;
+-Structures must be built next to roads. Green arrows are their entrance points which must be attached to roads. Structures cannot be built on another structure or in the water.
+-Press R to rotate the structure;
+-Click RMB to exit the Build mode.
+Tips:
+- Fishing dock should be placed at water bank with its entrance (green arrows) attached to road.
+-Mine should be placed only at grey-colored land to produce iron ores and stone.
+- Logging camps will stop outputting logs when there is no fully grown tree nearby.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">How to build a road:
+-Click the Build button and select a road type from the Road menu
+-Click to select a start point for the road;
+-Move the mouse (don’t have to hold LMB);
+-Click again to select an end point;
+- Once the end point is selected, a window will pop up to confirm if you want to build the road in this way. Select “√” to confirm the construction or “×” to cancel it.
+Tips:
+-New roads should start from the roads that have already existed and could not end in water. Roads should not cross any structure, except for another road;
+-The overwater part of roads will automatically turn into bridges;
+-You can upgrade your roads by covering it with an advanced road type.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Production Control:
+-Click a structure to open its production control window when you are not in the Build mode.
+-You can shift the product type, increase or reduce the number of workers and upgrade or remove the structure through this window.
+-Production Efficiency is proportionate to the number of workers working in the structure and can be influenced by the policies in use.
+-At the end of a production cycle, the real product output = production efficiency * standard output.
+-You have to prepare construction materials to upgrade your structures. Upgraded structures have a greater standard output, and new product lines can be unlocked in some of them. 
+No products output? This may be caused by the following reasons:
+-Lack of workers. Jobless residents will be directly assigned to newly-built productive structures. But new residents from newly-built folk house will not be automatically assigned to productive structures with vacancies.
+-Lack of raw materials. Check your inventory at your warehouse to see if there is any raw material left. It should be noted that logging camps will stop outputting logs when there is no fully grown tree nearby.
+-Too far to reach the market. Products produced in productive structures will not be immediately listed in the inventory, but after being transported into market. If a structure is too far away from the market, its products may not get into the market.
+-Not enough storage. Click your warehouses to check if they are full. Newly-produced products may be discarded if warehouses are full.
+-Bug. If you check all the items above and find no problems with them, you may meet a bug. We recommend you to save the game and reload to see if the problem is solved.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">How to remove:
+-Structure: Click a structure to open its production control window, and select “Remove” to remove it.
+-Road: Click “Road Removal” button from Build menu.
+-Resource Recovery: 75% of the resources you use in construction will be retrieved when you remove a structure, and no resource will be retrieved when you remove a road.
+Warning: The game will crash when you remove the last market in your town.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> Function:
+- Provides a trade place for productive structures nearby.
+- Allows for trade with outside merchants.
+Trade rules:
+-Trades can only be done at weekends. But you can decide whether to sell or buy some products at the market beforehand.
+-There is no restriction on what kind of products you can buy from the market, but you can only sell fixed kinds of products there. (In consideration of players’ feedback, we decide to change this rule in the future.)
+-You can only sell (or buy) at most 200 units of a same kind of goods in one week.
+- Select “√” to confirm a trade or “×” to cancel it. When you see a “√” on the right, that means this trade is waiting to be confirmed; when you see a “×”, that means this trade has been confirmed and you can cancel it before the weekend if you like.
+Trade mode:
+-Once. This trade will be done only once.
+-Every week. This trade is to be done every week.
+-Maintain. You can choose this when you want maintain the quantity of goods at a certain level in your warehouses.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">How to unlock policies:
+-You’ll be given one Policy Point every 20 towners. (Provisionally)
+-Click Town Hall and open the Policy menu.
+-Click policies to read about their effects. Policies will be in used after you unlock and then 
+Tips: 
+-Now you are offered three kinds of policy. And for each kind, you can choose only one policy and put it in use. (Provisionally)
+-Each policy requires one Policy Point to unlock. (Provisionally)
+- At present, the policies related to transportation costs reduction are not effective, and will be made effective in the future version of game.
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Save
+-Save path: Countryside_Data\Resources\Saves under the game root directory.
+- When copying a save file, please create a new folder with the same name of this file and paste the file into it (.save).
+</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Road Removal</t>
+  </si>
+  <si>
+    <t>拆除道路</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FrameRate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>帧率</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Frame Rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Efficiency</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadTech</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载政策</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading policies</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载库存资源</t>
+  </si>
+  <si>
+    <t>LoadResources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Loading storage resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadTerrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载地形模型</t>
+  </si>
+  <si>
+    <t>Loading terrain</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LoadMap</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载地图配置</t>
+  </si>
+  <si>
+    <t>Loading map</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在种树</t>
+  </si>
+  <si>
+    <t>正在加载水面</t>
+  </si>
+  <si>
+    <t>正在加载水面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generating water</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载已有建筑</t>
+  </si>
+  <si>
+    <t>Generating trees</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Generating buildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载已有建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载桥梁</t>
+  </si>
+  <si>
+    <t>Generating bridges</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载市场</t>
+  </si>
+  <si>
+    <t>Generating trades</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载小车车</t>
+  </si>
+  <si>
+    <t>Generating vehicles</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在加载UI</t>
+  </si>
+  <si>
+    <t>Initializing UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载完毕！用时</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loading complete in </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>加载完毕！用时</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>正在读取存档并序列化</t>
+  </si>
+  <si>
+    <t>正在读取存档并序列化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Serializing datas</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -2845,8 +2994,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="0"/>
       <name val="等线"/>
       <family val="2"/>
       <charset val="134"/>
@@ -2862,11 +3012,11 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFA5A5A5"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2874,14 +3024,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2902,14 +3078,18 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="检查单元格" xfId="1" builtinId="23"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3187,17 +3367,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E282"/>
+  <dimension ref="A1:E298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A101" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="C109" sqref="C109"/>
+    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="F295" sqref="F295"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="20" customWidth="1"/>
     <col min="2" max="2" width="29.375" customWidth="1"/>
-    <col min="3" max="3" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="23.625" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3330,7 +3510,7 @@
         <v>236</v>
       </c>
       <c r="C12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
@@ -3341,7 +3521,7 @@
         <v>98</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
@@ -3462,7 +3642,7 @@
         <v>39</v>
       </c>
       <c r="C24" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
@@ -3759,7 +3939,7 @@
         <v>237</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
@@ -3836,7 +4016,7 @@
         <v>111</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
@@ -3847,7 +4027,7 @@
         <v>110</v>
       </c>
       <c r="C59" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
@@ -3918,7 +4098,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B66" t="s">
         <v>132</v>
@@ -3932,10 +4112,10 @@
         <v>119</v>
       </c>
       <c r="B67" t="s">
-        <v>683</v>
+        <v>679</v>
       </c>
       <c r="C67" t="s">
-        <v>680</v>
+        <v>676</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.2">
@@ -3943,10 +4123,10 @@
         <v>136</v>
       </c>
       <c r="B68" t="s">
-        <v>685</v>
+        <v>681</v>
       </c>
       <c r="C68" t="s">
-        <v>682</v>
+        <v>678</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.2">
@@ -3954,10 +4134,10 @@
         <v>137</v>
       </c>
       <c r="B69" t="s">
-        <v>686</v>
+        <v>682</v>
       </c>
       <c r="C69" t="s">
-        <v>681</v>
+        <v>677</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.2">
@@ -3968,7 +4148,7 @@
         <v>216</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="E70" s="5"/>
     </row>
@@ -3980,7 +4160,7 @@
         <v>217</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.2">
@@ -3991,7 +4171,7 @@
         <v>218</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.2">
@@ -4002,7 +4182,7 @@
         <v>224</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.2">
@@ -4013,7 +4193,7 @@
         <v>225</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.2">
@@ -4024,7 +4204,7 @@
         <v>226</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.2">
@@ -4046,7 +4226,7 @@
         <v>148</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.2">
@@ -4057,7 +4237,7 @@
         <v>149</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.2">
@@ -4157,7 +4337,7 @@
         <v>655</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="E87" s="5"/>
     </row>
@@ -4191,7 +4371,7 @@
         <v>173</v>
       </c>
       <c r="C90" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.2">
@@ -4389,7 +4569,7 @@
         <v>238</v>
       </c>
       <c r="C108" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
@@ -4400,7 +4580,7 @@
         <v>221</v>
       </c>
       <c r="C109" s="5" t="s">
-        <v>697</v>
+        <v>688</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -4411,7 +4591,7 @@
         <v>223</v>
       </c>
       <c r="C110" s="5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
@@ -4433,7 +4613,7 @@
         <v>231</v>
       </c>
       <c r="C112" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
@@ -4444,7 +4624,7 @@
         <v>232</v>
       </c>
       <c r="C113" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
@@ -4455,7 +4635,7 @@
         <v>241</v>
       </c>
       <c r="C114" s="5" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
@@ -4466,7 +4646,7 @@
         <v>242</v>
       </c>
       <c r="C115" s="5" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
@@ -4664,7 +4844,7 @@
         <v>277</v>
       </c>
       <c r="C133" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.2">
@@ -4752,7 +4932,7 @@
         <v>647</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>696</v>
+        <v>687</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.2">
@@ -4928,7 +5108,7 @@
         <v>337</v>
       </c>
       <c r="C157" s="1" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
     </row>
     <row r="158" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4939,7 +5119,7 @@
         <v>339</v>
       </c>
       <c r="C158" s="1" t="s">
-        <v>677</v>
+        <v>691</v>
       </c>
     </row>
     <row r="159" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4950,7 +5130,7 @@
         <v>340</v>
       </c>
       <c r="C159" s="1" t="s">
-        <v>678</v>
+        <v>690</v>
       </c>
     </row>
     <row r="160" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -4961,7 +5141,7 @@
         <v>347</v>
       </c>
       <c r="C160" s="1" t="s">
-        <v>679</v>
+        <v>692</v>
       </c>
     </row>
     <row r="161" spans="1:3" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4972,7 +5152,7 @@
         <v>344</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>687</v>
+        <v>693</v>
       </c>
     </row>
     <row r="162" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4983,7 +5163,7 @@
         <v>350</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>688</v>
+        <v>694</v>
       </c>
     </row>
     <row r="163" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2">
@@ -4994,7 +5174,7 @@
         <v>349</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>689</v>
+        <v>695</v>
       </c>
     </row>
     <row r="164" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -5002,10 +5182,10 @@
         <v>348</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>690</v>
+        <v>683</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>691</v>
+        <v>696</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.2">
@@ -5247,7 +5427,7 @@
         <v>384</v>
       </c>
       <c r="C186" t="s">
-        <v>692</v>
+        <v>684</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.2">
@@ -5258,7 +5438,7 @@
         <v>385</v>
       </c>
       <c r="C187" t="s">
-        <v>693</v>
+        <v>685</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.2">
@@ -5269,7 +5449,7 @@
         <v>386</v>
       </c>
       <c r="C188" t="s">
-        <v>694</v>
+        <v>686</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.2">
@@ -5478,7 +5658,7 @@
         <v>420</v>
       </c>
       <c r="C207" t="s">
-        <v>660</v>
+        <v>702</v>
       </c>
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.2">
@@ -5669,10 +5849,10 @@
       </c>
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A225" s="10" t="s">
+      <c r="A225" t="s">
         <v>446</v>
       </c>
-      <c r="B225" s="10" t="s">
+      <c r="B225" t="s">
         <v>446</v>
       </c>
       <c r="C225" t="s">
@@ -5713,10 +5893,10 @@
       </c>
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A229" s="10" t="s">
+      <c r="A229" t="s">
         <v>450</v>
       </c>
-      <c r="B229" s="10" t="s">
+      <c r="B229" t="s">
         <v>450</v>
       </c>
       <c r="C229" t="s">
@@ -5746,10 +5926,10 @@
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A232" s="10" t="s">
+      <c r="A232" t="s">
         <v>453</v>
       </c>
-      <c r="B232" s="10" t="s">
+      <c r="B232" t="s">
         <v>453</v>
       </c>
       <c r="C232" t="s">
@@ -5911,7 +6091,7 @@
       </c>
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A247" s="11" t="s">
+      <c r="A247" s="10" t="s">
         <v>468</v>
       </c>
       <c r="B247" t="s">
@@ -5922,7 +6102,7 @@
       </c>
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A248" s="11" t="s">
+      <c r="A248" s="10" t="s">
         <v>469</v>
       </c>
       <c r="B248" t="s">
@@ -5933,7 +6113,7 @@
       </c>
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A249" s="11" t="s">
+      <c r="A249" s="10" t="s">
         <v>470</v>
       </c>
       <c r="B249" t="s">
@@ -5944,7 +6124,7 @@
       </c>
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A250" s="11" t="s">
+      <c r="A250" s="10" t="s">
         <v>471</v>
       </c>
       <c r="B250" t="s">
@@ -5955,7 +6135,7 @@
       </c>
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A251" s="11" t="s">
+      <c r="A251" s="10" t="s">
         <v>472</v>
       </c>
       <c r="B251" t="s">
@@ -5966,7 +6146,7 @@
       </c>
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A252" s="11" t="s">
+      <c r="A252" s="10" t="s">
         <v>473</v>
       </c>
       <c r="B252" t="s">
@@ -5977,7 +6157,7 @@
       </c>
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A253" s="11" t="s">
+      <c r="A253" s="10" t="s">
         <v>474</v>
       </c>
       <c r="B253" t="s">
@@ -5988,7 +6168,7 @@
       </c>
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A254" s="11" t="s">
+      <c r="A254" s="10" t="s">
         <v>475</v>
       </c>
       <c r="B254" t="s">
@@ -5999,7 +6179,7 @@
       </c>
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A255" s="11" t="s">
+      <c r="A255" s="10" t="s">
         <v>476</v>
       </c>
       <c r="B255" t="s">
@@ -6010,7 +6190,7 @@
       </c>
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A256" s="11" t="s">
+      <c r="A256" s="10" t="s">
         <v>477</v>
       </c>
       <c r="B256" t="s">
@@ -6021,7 +6201,7 @@
       </c>
     </row>
     <row r="257" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A257" s="11" t="s">
+      <c r="A257" s="10" t="s">
         <v>478</v>
       </c>
       <c r="B257" t="s">
@@ -6032,7 +6212,7 @@
       </c>
     </row>
     <row r="258" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A258" s="11" t="s">
+      <c r="A258" s="10" t="s">
         <v>479</v>
       </c>
       <c r="B258" t="s">
@@ -6043,7 +6223,7 @@
       </c>
     </row>
     <row r="259" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A259" s="11" t="s">
+      <c r="A259" s="10" t="s">
         <v>480</v>
       </c>
       <c r="B259" t="s">
@@ -6054,7 +6234,7 @@
       </c>
     </row>
     <row r="260" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A260" s="11" t="s">
+      <c r="A260" s="10" t="s">
         <v>481</v>
       </c>
       <c r="B260" t="s">
@@ -6065,7 +6245,7 @@
       </c>
     </row>
     <row r="261" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A261" s="11" t="s">
+      <c r="A261" s="10" t="s">
         <v>482</v>
       </c>
       <c r="B261" t="s">
@@ -6076,7 +6256,7 @@
       </c>
     </row>
     <row r="262" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A262" s="11" t="s">
+      <c r="A262" s="10" t="s">
         <v>483</v>
       </c>
       <c r="B262" t="s">
@@ -6087,7 +6267,7 @@
       </c>
     </row>
     <row r="263" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A263" s="11" t="s">
+      <c r="A263" s="10" t="s">
         <v>484</v>
       </c>
       <c r="B263" t="s">
@@ -6098,7 +6278,7 @@
       </c>
     </row>
     <row r="264" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A264" s="11" t="s">
+      <c r="A264" s="10" t="s">
         <v>485</v>
       </c>
       <c r="B264" t="s">
@@ -6109,7 +6289,7 @@
       </c>
     </row>
     <row r="265" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A265" s="11" t="s">
+      <c r="A265" s="10" t="s">
         <v>486</v>
       </c>
       <c r="B265" t="s">
@@ -6120,7 +6300,7 @@
       </c>
     </row>
     <row r="266" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A266" s="11" t="s">
+      <c r="A266" s="10" t="s">
         <v>487</v>
       </c>
       <c r="B266" t="s">
@@ -6131,7 +6311,7 @@
       </c>
     </row>
     <row r="267" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A267" s="11" t="s">
+      <c r="A267" s="10" t="s">
         <v>488</v>
       </c>
       <c r="B267" t="s">
@@ -6142,7 +6322,7 @@
       </c>
     </row>
     <row r="268" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A268" s="11" t="s">
+      <c r="A268" s="10" t="s">
         <v>489</v>
       </c>
       <c r="B268" t="s">
@@ -6153,7 +6333,7 @@
       </c>
     </row>
     <row r="269" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A269" s="11" t="s">
+      <c r="A269" s="10" t="s">
         <v>490</v>
       </c>
       <c r="B269" t="s">
@@ -6164,7 +6344,7 @@
       </c>
     </row>
     <row r="270" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A270" s="11" t="s">
+      <c r="A270" s="10" t="s">
         <v>491</v>
       </c>
       <c r="B270" t="s">
@@ -6175,7 +6355,7 @@
       </c>
     </row>
     <row r="271" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A271" s="11" t="s">
+      <c r="A271" s="10" t="s">
         <v>492</v>
       </c>
       <c r="B271" t="s">
@@ -6186,7 +6366,7 @@
       </c>
     </row>
     <row r="272" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A272" s="11" t="s">
+      <c r="A272" s="10" t="s">
         <v>493</v>
       </c>
       <c r="B272" t="s">
@@ -6197,7 +6377,7 @@
       </c>
     </row>
     <row r="273" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A273" s="11" t="s">
+      <c r="A273" s="10" t="s">
         <v>494</v>
       </c>
       <c r="B273" t="s">
@@ -6208,7 +6388,7 @@
       </c>
     </row>
     <row r="274" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A274" s="11" t="s">
+      <c r="A274" s="10" t="s">
         <v>495</v>
       </c>
       <c r="B274" t="s">
@@ -6219,7 +6399,7 @@
       </c>
     </row>
     <row r="275" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A275" s="11" t="s">
+      <c r="A275" s="10" t="s">
         <v>496</v>
       </c>
       <c r="B275" t="s">
@@ -6230,7 +6410,7 @@
       </c>
     </row>
     <row r="276" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A276" s="11" t="s">
+      <c r="A276" s="10" t="s">
         <v>497</v>
       </c>
       <c r="B276" t="s">
@@ -6241,7 +6421,7 @@
       </c>
     </row>
     <row r="277" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A277" s="11" t="s">
+      <c r="A277" s="10" t="s">
         <v>498</v>
       </c>
       <c r="B277" t="s">
@@ -6252,7 +6432,7 @@
       </c>
     </row>
     <row r="278" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A278" s="11" t="s">
+      <c r="A278" s="10" t="s">
         <v>499</v>
       </c>
       <c r="B278" t="s">
@@ -6263,7 +6443,7 @@
       </c>
     </row>
     <row r="279" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A279" s="11" t="s">
+      <c r="A279" s="10" t="s">
         <v>500</v>
       </c>
       <c r="B279" t="s">
@@ -6274,38 +6454,204 @@
       </c>
     </row>
     <row r="280" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A280" s="11" t="s">
+      <c r="A280" s="10" t="s">
         <v>534</v>
       </c>
       <c r="B280" t="s">
         <v>535</v>
       </c>
-      <c r="C280" s="11" t="s">
+      <c r="C280" s="10" t="s">
         <v>534</v>
       </c>
     </row>
     <row r="281" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A281" s="11" t="s">
+      <c r="A281" s="10" t="s">
         <v>536</v>
       </c>
       <c r="B281" t="s">
         <v>537</v>
       </c>
-      <c r="C281" s="11" t="s">
+      <c r="C281" s="10" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="282" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A282" s="11" t="s">
+    <row r="282" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="10" t="s">
         <v>538</v>
       </c>
       <c r="B282" t="s">
         <v>539</v>
       </c>
-      <c r="C282" s="11" t="s">
+      <c r="C282" s="10" t="s">
         <v>538</v>
       </c>
     </row>
+    <row r="283" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="11" t="s">
+        <v>698</v>
+      </c>
+      <c r="B283" s="12" t="s">
+        <v>698</v>
+      </c>
+      <c r="C283" s="12" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="284" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="11" t="s">
+        <v>699</v>
+      </c>
+      <c r="B284" s="12" t="s">
+        <v>700</v>
+      </c>
+      <c r="C284" s="11" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="285" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="11" t="s">
+        <v>703</v>
+      </c>
+      <c r="B285" s="12" t="s">
+        <v>704</v>
+      </c>
+      <c r="C285" s="11" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="286" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="11" t="s">
+        <v>707</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>706</v>
+      </c>
+      <c r="C286" s="11" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="287" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="11" t="s">
+        <v>709</v>
+      </c>
+      <c r="B287" s="12" t="s">
+        <v>710</v>
+      </c>
+      <c r="C287" s="11" t="s">
+        <v>711</v>
+      </c>
+    </row>
+    <row r="288" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="11" t="s">
+        <v>712</v>
+      </c>
+      <c r="B288" s="12" t="s">
+        <v>713</v>
+      </c>
+      <c r="C288" s="11" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="289" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="B289" s="12" t="s">
+        <v>715</v>
+      </c>
+      <c r="C289" s="11" t="s">
+        <v>720</v>
+      </c>
+    </row>
+    <row r="290" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="12" t="s">
+        <v>716</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>717</v>
+      </c>
+      <c r="C290" s="11" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="291" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="12" t="s">
+        <v>722</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>719</v>
+      </c>
+      <c r="C291" s="12" t="s">
+        <v>721</v>
+      </c>
+    </row>
+    <row r="292" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>723</v>
+      </c>
+      <c r="C292" s="12" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="293" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A293" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>725</v>
+      </c>
+      <c r="C293" s="12" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="294" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="B294" s="12" t="s">
+        <v>727</v>
+      </c>
+      <c r="C294" s="12" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="295" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="B295" s="12" t="s">
+        <v>729</v>
+      </c>
+      <c r="C295" s="12" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="296" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A296" s="12" t="s">
+        <v>731</v>
+      </c>
+      <c r="B296" s="12" t="s">
+        <v>733</v>
+      </c>
+      <c r="C296" s="13" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="297" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="12" t="s">
+        <v>734</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>735</v>
+      </c>
+      <c r="C297" s="12" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="298" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B570D8C-AE01-4074-9FF0-DEE1627CF2FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB60614-726A-452A-8CD2-B137DEC9B132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="891" uniqueCount="737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="757">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -2943,6 +2943,83 @@
   </si>
   <si>
     <t>Serializing datas</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>升级资源不足</t>
+  </si>
+  <si>
+    <t>No enough resources</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MonitorResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UnMonitorResource</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Allowed to eat</t>
+  </si>
+  <si>
+    <t>允许食用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AllowEat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>禁止食用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Forbidden to eat</t>
+  </si>
+  <si>
+    <t>ForbiddenEat</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Add to HUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从HUD中移出</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>置于左上HUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Remove from HUD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自建筑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来自贸易</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From Buildings</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From Trading</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3367,10 +3444,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E298"/>
+  <dimension ref="A1:E312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A276" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F295" sqref="F295"/>
+    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="G302" sqref="G302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -4913,7 +4990,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="299.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:3" ht="256.5" x14ac:dyDescent="0.2">
       <c r="A140" s="6" t="s">
         <v>291</v>
       </c>
@@ -6651,7 +6728,125 @@
         <v>736</v>
       </c>
     </row>
-    <row r="298" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="298" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="B298" s="12" t="s">
+        <v>737</v>
+      </c>
+      <c r="C298" s="12" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="299" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A299" s="12" t="s">
+        <v>739</v>
+      </c>
+      <c r="B299" s="12" t="s">
+        <v>749</v>
+      </c>
+      <c r="C299" s="13" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="300" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="12" t="s">
+        <v>740</v>
+      </c>
+      <c r="B300" s="12" t="s">
+        <v>748</v>
+      </c>
+      <c r="C300" s="12" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="301" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="12" t="s">
+        <v>743</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>742</v>
+      </c>
+      <c r="C301" s="12" t="s">
+        <v>741</v>
+      </c>
+    </row>
+    <row r="302" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A302" s="12" t="s">
+        <v>746</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>744</v>
+      </c>
+      <c r="C302" s="12" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="303" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>751</v>
+      </c>
+      <c r="C303" s="12" t="s">
+        <v>753</v>
+      </c>
+    </row>
+    <row r="304" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>752</v>
+      </c>
+      <c r="C304" s="12" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="305" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A305" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>755</v>
+      </c>
+      <c r="C305" s="12" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="306" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="12"/>
+      <c r="B306" s="12"/>
+      <c r="C306" s="12"/>
+    </row>
+    <row r="307" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="12"/>
+      <c r="B307" s="12"/>
+      <c r="C307" s="12"/>
+    </row>
+    <row r="308" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A308" s="12"/>
+      <c r="B308" s="12"/>
+      <c r="C308" s="12"/>
+    </row>
+    <row r="309" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="12"/>
+      <c r="B309" s="12"/>
+      <c r="C309" s="12"/>
+    </row>
+    <row r="310" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="12"/>
+      <c r="B310" s="12"/>
+      <c r="C310" s="12"/>
+    </row>
+    <row r="311" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A311" s="12"/>
+      <c r="B311" s="12"/>
+      <c r="C311" s="12"/>
+    </row>
+    <row r="312" spans="1:3" ht="15" thickTop="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <autoFilter ref="A1:C50" xr:uid="{648831FC-9393-4223-9C28-0813F4AF1425}"/>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProjects\BiShe\Assets\Resources\Data\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEB60614-726A-452A-8CD2-B137DEC9B132}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{858AA757-2435-4CF0-BE67-96BB7B0B9A9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="757">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="927" uniqueCount="763">
   <si>
     <t>英文代码</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -3020,6 +3020,30 @@
   </si>
   <si>
     <t>None</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseLv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库二级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WarehouseLv3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>仓库三级</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Lv2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Warehouse Lv3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3446,8 +3470,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E312"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A288" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G302" sqref="G302"/>
+    <sheetView tabSelected="1" topLeftCell="A291" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="E305" sqref="E305"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -6817,24 +6841,48 @@
       </c>
     </row>
     <row r="306" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="12"/>
-      <c r="B306" s="12"/>
-      <c r="C306" s="12"/>
+      <c r="A306" s="12" t="s">
+        <v>757</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="C306" s="12" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="307" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="12"/>
-      <c r="B307" s="12"/>
-      <c r="C307" s="12"/>
+      <c r="A307" s="12" t="s">
+        <v>759</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="C307" s="12" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="308" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="12"/>
-      <c r="B308" s="12"/>
-      <c r="C308" s="12"/>
+      <c r="A308" s="12" t="s">
+        <v>761</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>758</v>
+      </c>
+      <c r="C308" s="12" t="s">
+        <v>757</v>
+      </c>
     </row>
     <row r="309" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="12"/>
-      <c r="B309" s="12"/>
-      <c r="C309" s="12"/>
+      <c r="A309" s="12" t="s">
+        <v>762</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>760</v>
+      </c>
+      <c r="C309" s="12" t="s">
+        <v>759</v>
+      </c>
     </row>
     <row r="310" spans="1:3" ht="15.75" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A310" s="12"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -4,20 +4,20 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="17930"/>
+    <workbookView windowWidth="13060" windowHeight="12550"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$310</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$311</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="933" uniqueCount="742">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="936" uniqueCount="744">
   <si>
     <t>英文代码</t>
   </si>
@@ -2398,6 +2398,12 @@
   </si>
   <si>
     <t>水果</t>
+  </si>
+  <si>
+    <t>capacity</t>
+  </si>
+  <si>
+    <t>容量</t>
   </si>
 </sst>
 </file>
@@ -2454,6 +2460,34 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
@@ -2462,14 +2496,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2482,8 +2525,33 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2497,63 +2565,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2569,14 +2582,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2597,7 +2603,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2609,7 +2645,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2621,55 +2693,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2681,13 +2705,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2705,25 +2723,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2735,19 +2753,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2759,7 +2765,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2771,7 +2777,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2813,20 +2819,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2842,6 +2837,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2865,22 +2875,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2888,8 +2883,19 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2899,10 +2905,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2911,16 +2917,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2929,13 +2935,19 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2944,31 +2956,25 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
@@ -2977,67 +2983,67 @@
     <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3391,8 +3397,8 @@
   <sheetPr/>
   <dimension ref="A1:E312"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A291" workbookViewId="0">
-      <selection activeCell="E310" sqref="E310"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A293" workbookViewId="0">
+      <selection activeCell="C313" sqref="C313"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -6827,9 +6833,19 @@
         <v>740</v>
       </c>
     </row>
-    <row r="312" ht="14.75"/>
+    <row r="312" ht="14.75" spans="1:3">
+      <c r="A312" t="s">
+        <v>742</v>
+      </c>
+      <c r="B312" t="s">
+        <v>743</v>
+      </c>
+      <c r="C312" t="s">
+        <v>742</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C310">
+  <autoFilter ref="A1:C311">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -10,14 +10,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$312</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$C$373</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1139">
   <si>
     <t>IDS</t>
   </si>
@@ -1725,28 +1725,24 @@
 -为附近的生产建筑提供服务。
 -为小镇提供从外界购买或卖出物品的功能。
     买卖规则：
--每周结束进行一次结算。
--买入不限制物品种类，卖出每关限制了不同的物品种类（根据玩家反馈，此条以后会改）。
--不管买入还是卖出，每槽位每周限制交易数量默认上限为200 。数量受政策影响。
--点勾代表确认交易，点叉代表取消交易。即显示勾的时候没有在交易，显示叉的时候是正在等待到周末交易。
+-买入需要填写合同并发布，卖出需要先接取合同。
+-每当一笔卖出合同完成时，会为你的小镇积累此类型合同的声望值，声望值越高，会提高同种合同出现的概率。
+-合同有期限限制。如果超过期限还未交付货物，则已交付的部分会自动结算金钱，并且扣除声望值。
     交易方式：
 -一次。交易一次后自动取消交易。
--每周。每周都会持续交易。
--维持。当处于买入时，当库存数量低于设定的维持数量时，会自动买入直到库存等于维持数量。当处于卖出时，当库存数量多余设定的维持数量时，会自动卖出，但不超过每周交易的数量上限，直到库存数量等于维持数量。</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Function:
-- Provides a trade place for productive structures nearby.
-- Allows for trade with outside merchants.
-Trade rules:
--Trades can only be done at weekends. But you can decide whether to sell or buy some products at the market beforehand.
--There is no restriction on what kind of products you can buy from the market, but you can only sell fixed kinds of products there. (In consideration of players’ feedback, we decide to change this rule in the future.)
--You can only sell (or buy) at most 200 units of a same kind of goods in one week.
-- Select “√” to confirm a trade or “×” to cancel it. When you see a “√” on the right, that means this trade is waiting to be confirmed; when you see a “×”, that means this trade has been confirmed and you can cancel it before the weekend if you like.
-Trade mode:
--Once. This trade will be done only once.
--Every week. This trade is to be done every week.
--Maintain. You can choose this when you want maintain the quantity of goods at a certain level in your warehouses.
+-持续性。首次交易成功后，会根据合同约定的重复周期来进行持续交易。如果未如期履约，则合同将自动取消。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Function:
+-Provide services for nearby production buildings.
+-Provide the function of purchasing or selling items from the outside for the small town.
+Buying and selling rules:
+-To buy, a contract needs to be filled out and published, while to sell, a contract needs to be picked up first.
+-Whenever a sales contract is completed, it will accumulate the reputation value of this type of contract for your town. The higher the reputation value, the higher the probability of the same type of contract appearing.
+-The contract has a term limit. If the goods have not been delivered after the deadline, the delivered part will automatically settle the money and deduct the reputation value.
+Transaction mode:
+-Once. Automatically cancel the transaction after one transaction.
+-Sustainability. After the first successful transaction, continuous trading will be carried out according to the agreed recurrence period in the contract. If the contract is not fulfilled as scheduled, it will be automatically cancelled.
 </t>
   </si>
   <si>
@@ -3239,6 +3235,363 @@
   </si>
   <si>
     <t>Lagerkapazität</t>
+  </si>
+  <si>
+    <t>Temporary</t>
+  </si>
+  <si>
+    <t>临时</t>
+  </si>
+  <si>
+    <t>Continuous</t>
+  </si>
+  <si>
+    <t>持续性</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription1</t>
+  </si>
+  <si>
+    <t>某超市急需这件商品</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription2</t>
+  </si>
+  <si>
+    <t>某面粉厂希望能建立合作关系</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription3</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription4</t>
+  </si>
+  <si>
+    <t>某粮商希望能长期收购</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription5</t>
+  </si>
+  <si>
+    <t>某村需要这个建筑原料</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription6</t>
+  </si>
+  <si>
+    <t>某家具厂需要稳定的原料供应</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription7</t>
+  </si>
+  <si>
+    <t>某家具经销商急需一批货物</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription8</t>
+  </si>
+  <si>
+    <t>某家具品牌需要代工合作</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription9</t>
+  </si>
+  <si>
+    <t>某超市急需新鲜的肉类</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription10</t>
+  </si>
+  <si>
+    <t>某超市需要稳定的鲜肉供应</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription11</t>
+  </si>
+  <si>
+    <t>某食品加工厂需要原料</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription12</t>
+  </si>
+  <si>
+    <t>某品牌面包店正在寻找供应商</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription13</t>
+  </si>
+  <si>
+    <t>某零食网店需要代工网红产品</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription14</t>
+  </si>
+  <si>
+    <t>某建筑工程需要大量石料</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription15</t>
+  </si>
+  <si>
+    <t>某市场缺货，急需补进</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription16</t>
+  </si>
+  <si>
+    <t>某食品品牌需要代工</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription17</t>
+  </si>
+  <si>
+    <t>某酒店需要新鲜的食材</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription18</t>
+  </si>
+  <si>
+    <t>某生鲜市场需要稳定的货物渠道</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription19</t>
+  </si>
+  <si>
+    <t>某钢铁厂需要矿物原料</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription20</t>
+  </si>
+  <si>
+    <t>某钢铁厂希望建立长期合作关系</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription21</t>
+  </si>
+  <si>
+    <t>某服装厂需要原料</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription22</t>
+  </si>
+  <si>
+    <t>某服装厂希望建立长期合作关系</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription23</t>
+  </si>
+  <si>
+    <t>某超市希望进购一些新鲜蔬菜</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription24</t>
+  </si>
+  <si>
+    <t>某粮商愿意长期大量订购蔬菜</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription25</t>
+  </si>
+  <si>
+    <t>某建筑工地需要这种材料</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription26</t>
+  </si>
+  <si>
+    <t>某加工厂长期需要这种材料</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription27</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription28</t>
+  </si>
+  <si>
+    <t>某金属加工厂长期需要这种材料</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription29</t>
+  </si>
+  <si>
+    <t>某食品供应商长期需要这件商品</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription30</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription31</t>
+  </si>
+  <si>
+    <t>某服装网店需要定制一批衣服</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription32</t>
+  </si>
+  <si>
+    <t>某服装品牌需要代工</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription33</t>
+  </si>
+  <si>
+    <t>某水果批发商急需新鲜水果</t>
+  </si>
+  <si>
+    <t>MarketOrderDescription34</t>
+  </si>
+  <si>
+    <t>某水果批发市场需要稳定的货源</t>
+  </si>
+  <si>
+    <t>MarketOrderDestination</t>
+  </si>
+  <si>
+    <t>需要运送到{0}km外的{1}</t>
+  </si>
+  <si>
+    <t>MarketOrderTimeLimit</t>
+  </si>
+  <si>
+    <t>首次交付期限为{0}周</t>
+  </si>
+  <si>
+    <t>MarketOrderTimeRepeat</t>
+  </si>
+  <si>
+    <t>首次交付完成后，如果每{0}周以相同的价格和数量交付物品，订单将持续，否则订单将自动取消</t>
+  </si>
+  <si>
+    <t>MarketOrderAppearRate</t>
+  </si>
+  <si>
+    <t>此类型订单的声誉值为</t>
+  </si>
+  <si>
+    <t>City</t>
+  </si>
+  <si>
+    <t>城市</t>
+  </si>
+  <si>
+    <t>Village</t>
+  </si>
+  <si>
+    <t>乡村</t>
+  </si>
+  <si>
+    <t>Wharf</t>
+  </si>
+  <si>
+    <t>码头</t>
+  </si>
+  <si>
+    <t>Train Station</t>
+  </si>
+  <si>
+    <t>火车站</t>
+  </si>
+  <si>
+    <t>Accepted</t>
+  </si>
+  <si>
+    <t>已接受</t>
+  </si>
+  <si>
+    <t>MarketOrderRemainTime</t>
+  </si>
+  <si>
+    <t>剩余时间为{0}周</t>
+  </si>
+  <si>
+    <t>MarketOrderRepeatTime</t>
+  </si>
+  <si>
+    <t>循环交付期限为{0}周</t>
+  </si>
+  <si>
+    <t>MarketOrderProgress</t>
+  </si>
+  <si>
+    <t>目前交付进度:{0}/{1}</t>
+  </si>
+  <si>
+    <t>MarketOrderNoOrder</t>
+  </si>
+  <si>
+    <t>暂无市场合同，请获取新合同</t>
+  </si>
+  <si>
+    <t>MarketOrderGetNewOrder</t>
+  </si>
+  <si>
+    <t>获取新合同</t>
+  </si>
+  <si>
+    <t>MarketOrderNoHavingOrder</t>
+  </si>
+  <si>
+    <t>暂无进行中的合同，请获取新合同</t>
+  </si>
+  <si>
+    <t>MarketOrderTransportingNum</t>
+  </si>
+  <si>
+    <t>正在运输此订单的车辆数量:{0}</t>
+  </si>
+  <si>
+    <t>TradeCenter</t>
+  </si>
+  <si>
+    <t>贸易地点</t>
+  </si>
+  <si>
+    <t>BackFromOrder</t>
+  </si>
+  <si>
+    <t>已完成交付货物：</t>
+  </si>
+  <si>
+    <t>MarketTitle1</t>
+  </si>
+  <si>
+    <t>进行中的订单</t>
+  </si>
+  <si>
+    <t>MarketTitle2</t>
+  </si>
+  <si>
+    <t>寻找订单合同</t>
+  </si>
+  <si>
+    <t>MarketTitle3</t>
+  </si>
+  <si>
+    <t>发布订单</t>
+  </si>
+  <si>
+    <t>MarketOrderNoPublishOrder</t>
+  </si>
+  <si>
+    <t>尚未发布订单</t>
+  </si>
+  <si>
+    <t>MarketBuyNeedTip</t>
+  </si>
+  <si>
+    <t>我们村需要这些商品</t>
+  </si>
+  <si>
+    <t>MarketBuyTransportTip</t>
+  </si>
+  <si>
+    <t>由对方负责运输到我们村的仓库</t>
+  </si>
+  <si>
+    <t>MarketBuyAutoTip</t>
+  </si>
+  <si>
+    <t>如果余额足够自动付款，{0}周后将自动重复本订单</t>
   </si>
 </sst>
 </file>
@@ -3251,14 +3604,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3430,12 +3776,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -3747,10 +4099,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3759,31 +4111,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -3795,109 +4150,106 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3909,22 +4261,26 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="26" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="26" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="26" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="26" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="26" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="26" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection hidden="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4244,16 +4600,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E312"/>
+  <dimension ref="A1:E373"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A269" workbookViewId="0">
-      <selection activeCell="G292" sqref="G292"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A141" workbookViewId="0">
+      <selection activeCell="C162" sqref="C162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="20" customWidth="1"/>
-    <col min="2" max="2" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="22.175" customWidth="1"/>
+    <col min="2" max="2" width="43.8416666666667" customWidth="1"/>
     <col min="3" max="3" width="72.5" customWidth="1"/>
     <col min="4" max="4" width="46.7916666666667" customWidth="1"/>
     <col min="7" max="7" width="24.5" customWidth="1"/>
@@ -6516,8 +6872,8 @@
         <v>526</v>
       </c>
     </row>
-    <row r="162" ht="15.75" customHeight="1" spans="1:4">
-      <c r="A162" t="s">
+    <row r="162" ht="268" customHeight="1" spans="1:4">
+      <c r="A162" s="11" t="s">
         <v>527</v>
       </c>
       <c r="B162" s="4" t="s">
@@ -6657,10 +7013,10 @@
       </c>
     </row>
     <row r="172" spans="1:4">
-      <c r="A172" s="11" t="s">
+      <c r="A172" s="12" t="s">
         <v>559</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="12" t="s">
         <v>559</v>
       </c>
       <c r="C172" t="s">
@@ -6971,7 +7327,7 @@
       <c r="B194" t="s">
         <v>625</v>
       </c>
-      <c r="C194" s="12" t="s">
+      <c r="C194" s="1" t="s">
         <v>626</v>
       </c>
       <c r="D194" s="1" t="s">
@@ -8630,8 +8986,502 @@
         <v>1019</v>
       </c>
     </row>
+    <row r="313" spans="1:3">
+      <c r="A313" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B313" t="s">
+        <v>1021</v>
+      </c>
+      <c r="C313" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="314" spans="1:3">
+      <c r="A314" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B314" t="s">
+        <v>1023</v>
+      </c>
+      <c r="C314" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B315" s="17" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B316" s="17" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
+      <c r="A317" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B317" s="17" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
+      <c r="A318" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B318" s="17" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
+      <c r="A319" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B319" s="17" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
+      <c r="A320" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B320" s="17" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2">
+      <c r="A321" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B321" s="17" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2">
+      <c r="A322" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B322" s="17" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2">
+      <c r="A323" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B323" s="17" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2">
+      <c r="A324" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B324" s="17" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2">
+      <c r="A325" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B325" s="17" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2">
+      <c r="A326" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B326" s="17" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2">
+      <c r="A327" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B327" s="17" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2">
+      <c r="A328" t="s">
+        <v>1049</v>
+      </c>
+      <c r="B328" s="17" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2">
+      <c r="A329" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B329" s="17" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2">
+      <c r="A330" t="s">
+        <v>1053</v>
+      </c>
+      <c r="B330" s="17" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2">
+      <c r="A331" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B331" s="17" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2">
+      <c r="A332" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B332" s="17" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2">
+      <c r="A333" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B333" s="17" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2">
+      <c r="A334" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B334" s="17" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="335" spans="1:2">
+      <c r="A335" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B335" s="17" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="336" spans="1:2">
+      <c r="A336" t="s">
+        <v>1065</v>
+      </c>
+      <c r="B336" s="17" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="337" spans="1:2">
+      <c r="A337" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B337" s="17" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2">
+      <c r="A338" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B338" s="17" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="339" spans="1:2">
+      <c r="A339" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B339" s="17" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="340" spans="1:2">
+      <c r="A340" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B340" s="17" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="341" spans="1:2">
+      <c r="A341" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B341" s="17" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2">
+      <c r="A342" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B342" s="17" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2">
+      <c r="A343" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B343" s="17" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2">
+      <c r="A344" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B344" s="17" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2">
+      <c r="A345" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B345" s="17" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2">
+      <c r="A346" t="s">
+        <v>1083</v>
+      </c>
+      <c r="B346" s="17" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2">
+      <c r="A347" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B347" s="17" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2">
+      <c r="A348" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B348" s="17" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2">
+      <c r="A349" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B349" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2">
+      <c r="A350" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B350" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="351" ht="45" customHeight="1" spans="1:2">
+      <c r="A351" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B351" s="8" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2">
+      <c r="A352" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B352" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2">
+      <c r="A353" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B353" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2">
+      <c r="A354" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B354" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2">
+      <c r="A355" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B355" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2">
+      <c r="A356" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B356" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="357" spans="1:2">
+      <c r="A357" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B357" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="358" spans="1:2">
+      <c r="A358" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B358" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="359" spans="1:2">
+      <c r="A359" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B359" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="360" spans="1:2">
+      <c r="A360" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B360" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="361" spans="1:2">
+      <c r="A361" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B361" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="362" spans="1:2">
+      <c r="A362" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B362" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="363" spans="1:2">
+      <c r="A363" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B363" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="364" spans="1:2">
+      <c r="A364" t="s">
+        <v>1119</v>
+      </c>
+      <c r="B364" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="365" spans="1:2">
+      <c r="A365" t="s">
+        <v>1121</v>
+      </c>
+      <c r="B365" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="366" spans="1:2">
+      <c r="A366" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B366" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="367" spans="1:2">
+      <c r="A367" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B367" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="368" spans="1:2">
+      <c r="A368" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B368" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="369" spans="1:2">
+      <c r="A369" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B369" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="370" spans="1:2">
+      <c r="A370" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B370" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="371" spans="1:2">
+      <c r="A371" t="s">
+        <v>1133</v>
+      </c>
+      <c r="B371" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="372" spans="1:2">
+      <c r="A372" t="s">
+        <v>1135</v>
+      </c>
+      <c r="B372" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="373" spans="1:2">
+      <c r="A373" t="s">
+        <v>1137</v>
+      </c>
+      <c r="B373" t="s">
+        <v>1138</v>
+      </c>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:C312">
+  <autoFilter ref="A1:C373">
     <extLst/>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Assets/Resources/Data/RawData/Localization.xlsx
+++ b/Assets/Resources/Data/RawData/Localization.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1372" uniqueCount="1139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1378" uniqueCount="1145">
   <si>
     <t>IDS</t>
   </si>
@@ -3592,6 +3592,24 @@
   </si>
   <si>
     <t>如果余额足够自动付款，{0}周后将自动重复本订单</t>
+  </si>
+  <si>
+    <t>LiKe_skill</t>
+  </si>
+  <si>
+    <t>理科</t>
+  </si>
+  <si>
+    <t>WenKe_skill</t>
+  </si>
+  <si>
+    <t>文科</t>
+  </si>
+  <si>
+    <t>YiShu_Skill</t>
+  </si>
+  <si>
+    <t>艺术</t>
   </si>
 </sst>
 </file>
@@ -4241,7 +4259,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -4281,6 +4299,7 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -4600,10 +4619,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:E373"/>
+  <dimension ref="A1:E376"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A141" workbookViewId="0">
-      <selection activeCell="C162" sqref="C162"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" topLeftCell="A343" workbookViewId="0">
+      <selection activeCell="C369" sqref="C369"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="4"/>
@@ -9480,6 +9499,30 @@
         <v>1138</v>
       </c>
     </row>
+    <row r="374" spans="1:2">
+      <c r="A374" s="18" t="s">
+        <v>1139</v>
+      </c>
+      <c r="B374" s="18" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="375" spans="1:2">
+      <c r="A375" s="18" t="s">
+        <v>1141</v>
+      </c>
+      <c r="B375" s="18" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="376" spans="1:2">
+      <c r="A376" s="18" t="s">
+        <v>1143</v>
+      </c>
+      <c r="B376" s="18" t="s">
+        <v>1144</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A1:C373">
     <extLst/>
